--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5191AB-3394-8743-9C2A-8289110E1F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C1580-E567-B346-B1D2-1349234485A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{821E3D18-53EE-3F49-ACED-58A0260C8EAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PO</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>testest</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24281A0-A111-8343-B54B-5906E5D39EA8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,6 +468,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C1580-E567-B346-B1D2-1349234485A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC729C56-61B0-8342-9B1D-72279D564944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{821E3D18-53EE-3F49-ACED-58A0260C8EAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PO</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24281A0-A111-8343-B54B-5906E5D39EA8}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +516,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/H2coco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC729C56-61B0-8342-9B1D-72279D564944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620ACC6-27C0-C246-9058-3FAC19E9F34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{821E3D18-53EE-3F49-ACED-58A0260C8EAC}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21100" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PO</t>
   </si>
@@ -49,36 +49,39 @@
   <si>
     <t>Amount</t>
   </si>
-  <si>
-    <t>testest</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,112 +446,4608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24281A0-A111-8343-B54B-5906E5D39EA8}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB96091-FFF7-FA49-AAE0-56AC976AE7FD}">
+  <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="2">
+        <v>3671</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45674</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.61933000000000005</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3672</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45674</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.61933000000000005</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3674</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45680</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.62709000000000004</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3647</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3648</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3925.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>3650</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3651</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3652</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>3653</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>3655</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3680</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3725</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45685</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.62736000000000003</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3607</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45687</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5089.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3606</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45688</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.62329000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3644</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45688</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.62329000000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>3712</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.62766999999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4633.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>3713</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.62766999999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4633.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>3726</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>3727</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>3728</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.62802000000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5702.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>3729</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.62785000000000002</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4074.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>3730</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3974.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>3731</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>3676</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.62787999999999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>3677</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.62787999999999999</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>3624</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.62756999999999996</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>3625</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.62756999999999996</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3912.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>3626</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.62756999999999996</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>3757</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.62756999999999996</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>3723</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.62775999999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>3724</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45701</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.62775999999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>3756</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>3772</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>3804</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>3805</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>3806</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>3807</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.63351999999999997</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>3667</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>3722</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>3733</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>3739</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>3745</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>3773</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3774</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45709</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.63434000000000001</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3765</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C3">
+      <c r="D46" s="6">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>3766</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>3740</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.62985000000000002</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>3789</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.62985000000000002</v>
+      </c>
+      <c r="D49" s="6">
+        <v>899.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>3792</v>
+      </c>
+      <c r="B50" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.62985000000000002</v>
+      </c>
+      <c r="D50" s="6">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>3795</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.62985000000000002</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>3627</v>
+      </c>
+      <c r="B52" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.63002999999999998</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>3628</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45715</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.63002999999999998</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>3734</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45715</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.63002999999999998</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>3855</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45715</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.63002999999999998</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>3856</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45715</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="D56" s="7">
+        <v>4190.4799999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>3758</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.63332999999999995</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4099.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>3746</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.63399000000000005</v>
+      </c>
+      <c r="D58" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>3797</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.63400999999999996</v>
+      </c>
+      <c r="D59" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>3798</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.63400999999999996</v>
+      </c>
+      <c r="D60" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>3816</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.63399000000000005</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>3814</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C4">
+      <c r="D62" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>3737</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C5">
+      <c r="D63" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>3747</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C64" s="3">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C6">
+      <c r="D64" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>3748</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C65" s="3">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45737</v>
-      </c>
-      <c r="C7">
+      <c r="D65" s="7">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>3751</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C66" s="3">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
+      <c r="D66" s="7">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>3753</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>3755</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3974.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>3759</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>3760</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>3763</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>3764</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>3809</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>3810</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>3811</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>3817</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>3843</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4179.6000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>3892</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>3786</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.63234999999999997</v>
+      </c>
+      <c r="D80" s="7">
+        <v>899.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>3793</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.63234999999999997</v>
+      </c>
+      <c r="D81" s="7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>3794</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.63234999999999997</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>3761</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D83" s="7">
+        <v>4074.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>3768</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D84" s="7">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>3769</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4201.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>3819</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D86" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>3829</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D88" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>3845</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>3877</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D90" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>3904</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D91" s="7">
+        <v>4551.8999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>3905</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4847.74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>3906</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.63278000000000001</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4158.8100000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>3854</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.63278000000000001</v>
+      </c>
+      <c r="D95" s="7">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>3876</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.63278000000000001</v>
+      </c>
+      <c r="D96" s="7">
+        <v>4616.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>3893</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.63278000000000001</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4143.4799999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>3907</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.63180999999999998</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>3857</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D99" s="7">
+        <v>7603.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>3858</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D100" s="7">
+        <v>7603.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>3859</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D101" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>3886</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D102" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>3800</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.63331000000000004</v>
+      </c>
+      <c r="D103" s="7">
+        <v>4276.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B104" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.63338000000000005</v>
+      </c>
+      <c r="D104" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>3887</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D105" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>3889</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D106" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>3890</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D107" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>3891</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D108" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>3894</v>
+      </c>
+      <c r="B109" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D109" s="7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>3895</v>
+      </c>
+      <c r="B110" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.63341999999999998</v>
+      </c>
+      <c r="D110" s="7">
+        <v>899.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>3776</v>
+      </c>
+      <c r="B111" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D111" s="7">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>3777</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D112" s="7">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>3821</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D113" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>3822</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>3823</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D115" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>3824</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D116" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>3826</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D117" s="7">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>3860</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D118" s="7">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>3874</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D119" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B120" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D120" s="7">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>3802</v>
+      </c>
+      <c r="B121" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.63338000000000005</v>
+      </c>
+      <c r="D121" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B122" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.63338000000000005</v>
+      </c>
+      <c r="D122" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>3872</v>
+      </c>
+      <c r="B123" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.63338000000000005</v>
+      </c>
+      <c r="D123" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B124" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.63334999999999997</v>
+      </c>
+      <c r="D124" s="7">
+        <v>4749.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>3901</v>
+      </c>
+      <c r="B125" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.63334000000000001</v>
+      </c>
+      <c r="D125" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>3908</v>
+      </c>
+      <c r="B126" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.63258999999999999</v>
+      </c>
+      <c r="D126" s="7">
+        <v>4544.53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>3902</v>
+      </c>
+      <c r="B127" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.62895999999999996</v>
+      </c>
+      <c r="D127" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>3903</v>
+      </c>
+      <c r="B128" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.62895999999999996</v>
+      </c>
+      <c r="D128" s="7">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>3741</v>
+      </c>
+      <c r="B129" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D129" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>3885</v>
+      </c>
+      <c r="B130" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D130" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>3888</v>
+      </c>
+      <c r="B131" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D131" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>3915</v>
+      </c>
+      <c r="B132" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D132" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>3942</v>
+      </c>
+      <c r="B133" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D133" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>3943</v>
+      </c>
+      <c r="B134" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D134" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>3944</v>
+      </c>
+      <c r="B135" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.62844</v>
+      </c>
+      <c r="D135" s="7">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>3778</v>
+      </c>
+      <c r="B136" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D136" s="7">
+        <v>3974.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>3832</v>
+      </c>
+      <c r="B137" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D137" s="7">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>3833</v>
+      </c>
+      <c r="B138" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D138" s="7">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>3834</v>
+      </c>
+      <c r="B139" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D139" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>3835</v>
+      </c>
+      <c r="B140" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D140" s="7">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>3836</v>
+      </c>
+      <c r="B141" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>3879</v>
+      </c>
+      <c r="B142" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D142" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>3882</v>
+      </c>
+      <c r="B143" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D143" s="7">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>3913</v>
+      </c>
+      <c r="B144" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D144" s="7">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>3546</v>
+      </c>
+      <c r="B145" s="5">
+        <v>45709</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.63263000000000003</v>
+      </c>
+      <c r="D145" s="7">
+        <v>14586</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C450" s="3"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C451" s="3"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C452" s="3"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C453" s="3"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C454" s="3"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C455" s="3"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C456" s="3"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C457" s="3"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" s="3"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C459" s="3"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C460" s="3"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C461" s="3"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C462" s="3"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C465" s="3"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C466" s="3"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C467" s="3"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C468" s="3"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C469" s="3"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C470" s="3"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C471" s="3"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C472" s="3"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C473" s="3"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C474" s="3"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C475" s="3"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C476" s="3"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C477" s="3"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C478" s="3"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" s="3"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C482" s="3"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C483" s="3"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C486" s="3"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C487" s="3"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C488" s="3"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C489" s="3"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C490" s="3"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C491" s="3"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C492" s="3"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C493" s="3"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C494" s="3"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C495" s="3"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C496" s="3"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C497" s="3"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C498" s="3"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C499" s="3"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C500" s="3"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C501" s="3"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C502" s="3"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C503" s="3"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C504" s="3"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C505" s="3"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C506" s="3"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C507" s="3"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C508" s="3"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C509" s="3"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C510" s="3"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C511" s="3"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C512" s="3"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C513" s="3"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C514" s="3"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C515" s="3"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C516" s="3"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C518" s="3"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C519" s="3"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C520" s="3"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C521" s="3"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C522" s="3"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C523" s="3"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C524" s="3"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C525" s="3"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C526" s="3"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C527" s="3"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C529" s="3"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C530" s="3"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C531" s="3"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C532" s="3"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C533" s="3"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C534" s="3"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C535" s="3"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C536" s="3"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C537" s="3"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C538" s="3"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C539" s="3"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C540" s="3"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C541" s="3"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C542" s="3"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C543" s="3"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C544" s="3"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C545" s="3"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C546" s="3"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C548" s="3"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C549" s="3"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C550" s="3"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C551" s="3"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C552" s="3"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C553" s="3"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C554" s="3"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C555" s="3"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C556" s="3"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C557" s="3"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C558" s="3"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C559" s="3"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C560" s="3"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C561" s="3"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C562" s="3"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C563" s="3"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C564" s="3"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C565" s="3"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C566" s="3"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C567" s="3"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C568" s="3"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C569" s="3"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C570" s="3"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C571" s="3"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C572" s="3"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C573" s="3"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C574" s="3"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C575" s="3"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C576" s="3"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C577" s="3"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C578" s="3"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C579" s="3"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C580" s="3"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C581" s="3"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C582" s="3"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C583" s="3"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C584" s="3"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C585" s="3"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C586" s="3"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C587" s="3"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C588" s="3"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C589" s="3"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C590" s="3"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C591" s="3"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C592" s="3"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C593" s="3"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C594" s="3"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C595" s="3"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C596" s="3"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C597" s="3"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C598" s="3"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C599" s="3"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C600" s="3"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C601" s="3"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C602" s="3"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C603" s="3"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C604" s="3"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C605" s="3"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C606" s="3"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C607" s="3"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C608" s="3"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C609" s="3"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C610" s="3"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C611" s="3"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C612" s="3"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C613" s="3"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C614" s="3"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C615" s="3"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C616" s="3"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C617" s="3"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C618" s="3"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C619" s="3"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C620" s="3"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C621" s="3"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C622" s="3"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C623" s="3"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C624" s="3"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C625" s="3"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C626" s="3"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C627" s="3"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C628" s="3"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C629" s="3"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C631" s="3"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C632" s="3"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C633" s="3"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C634" s="3"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C635" s="3"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C636" s="3"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C637" s="3"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C638" s="3"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C639" s="3"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C640" s="3"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C641" s="3"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C642" s="3"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C643" s="3"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C644" s="3"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C645" s="3"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C646" s="3"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C647" s="3"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C648" s="3"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C649" s="3"/>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C650" s="3"/>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C651" s="3"/>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C652" s="3"/>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C653" s="3"/>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C654" s="3"/>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C655" s="3"/>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C656" s="3"/>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C657" s="3"/>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C658" s="3"/>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C659" s="3"/>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C660" s="3"/>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C661" s="3"/>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C662" s="3"/>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C663" s="3"/>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C664" s="3"/>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C665" s="3"/>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C666" s="3"/>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C667" s="3"/>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C668" s="3"/>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C669" s="3"/>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C670" s="3"/>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C671" s="3"/>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C672" s="3"/>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C673" s="3"/>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C674" s="3"/>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C675" s="3"/>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C676" s="3"/>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C677" s="3"/>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C678" s="3"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C679" s="3"/>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C680" s="3"/>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C681" s="3"/>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C682" s="3"/>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C683" s="3"/>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C684" s="3"/>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C685" s="3"/>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C686" s="3"/>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C687" s="3"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C688" s="3"/>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C689" s="3"/>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C690" s="3"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C691" s="3"/>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C692" s="3"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C693" s="3"/>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C694" s="3"/>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C695" s="3"/>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C696" s="3"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C697" s="3"/>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C698" s="3"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C699" s="3"/>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C700" s="3"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C701" s="3"/>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C702" s="3"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C703" s="3"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C704" s="3"/>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C705" s="3"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C706" s="3"/>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C707" s="3"/>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C708" s="3"/>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C709" s="3"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C710" s="3"/>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C711" s="3"/>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C712" s="3"/>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C713" s="3"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C714" s="3"/>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C715" s="3"/>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C716" s="3"/>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C717" s="3"/>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C718" s="3"/>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C719" s="3"/>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C720" s="3"/>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C721" s="3"/>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C722" s="3"/>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C723" s="3"/>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C724" s="3"/>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C725" s="3"/>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C726" s="3"/>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C727" s="3"/>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C728" s="3"/>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C729" s="3"/>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C730" s="3"/>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C731" s="3"/>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C732" s="3"/>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C733" s="3"/>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C734" s="3"/>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C735" s="3"/>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C736" s="3"/>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C737" s="3"/>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C738" s="3"/>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C739" s="3"/>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C740" s="3"/>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C741" s="3"/>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C742" s="3"/>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C743" s="3"/>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C744" s="3"/>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" s="3"/>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C746" s="3"/>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C747" s="3"/>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C748" s="3"/>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C749" s="3"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C750" s="3"/>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C751" s="3"/>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C752" s="3"/>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C753" s="3"/>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C754" s="3"/>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C755" s="3"/>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C756" s="3"/>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C757" s="3"/>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C758" s="3"/>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C759" s="3"/>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C760" s="3"/>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C761" s="3"/>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C762" s="3"/>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C763" s="3"/>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C764" s="3"/>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C765" s="3"/>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C766" s="3"/>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C767" s="3"/>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C768" s="3"/>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C769" s="3"/>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C770" s="3"/>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C771" s="3"/>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C772" s="3"/>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C773" s="3"/>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C774" s="3"/>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C775" s="3"/>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C776" s="3"/>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C777" s="3"/>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C778" s="3"/>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C779" s="3"/>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C780" s="3"/>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C781" s="3"/>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C782" s="3"/>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C783" s="3"/>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C784" s="3"/>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C785" s="3"/>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C786" s="3"/>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C787" s="3"/>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C788" s="3"/>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C789" s="3"/>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C790" s="3"/>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C791" s="3"/>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C792" s="3"/>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C793" s="3"/>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C794" s="3"/>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C795" s="3"/>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C796" s="3"/>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C797" s="3"/>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C798" s="3"/>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C799" s="3"/>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C800" s="3"/>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C801" s="3"/>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C802" s="3"/>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C803" s="3"/>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C804" s="3"/>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C805" s="3"/>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C806" s="3"/>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C807" s="3"/>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C808" s="3"/>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C809" s="3"/>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C810" s="3"/>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C811" s="3"/>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C812" s="3"/>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C813" s="3"/>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C814" s="3"/>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C815" s="3"/>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C816" s="3"/>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C817" s="3"/>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C818" s="3"/>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C819" s="3"/>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C820" s="3"/>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C821" s="3"/>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C822" s="3"/>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C823" s="3"/>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C824" s="3"/>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C825" s="3"/>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C826" s="3"/>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C827" s="3"/>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C828" s="3"/>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C829" s="3"/>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C830" s="3"/>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C831" s="3"/>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C832" s="3"/>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C833" s="3"/>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C834" s="3"/>
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C835" s="3"/>
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C836" s="3"/>
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C837" s="3"/>
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C838" s="3"/>
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C839" s="3"/>
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C840" s="3"/>
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C841" s="3"/>
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C842" s="3"/>
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C844" s="3"/>
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C845" s="3"/>
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C846" s="3"/>
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C847" s="3"/>
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C848" s="3"/>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C850" s="3"/>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C851" s="3"/>
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C852" s="3"/>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C854" s="3"/>
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C855" s="3"/>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C856" s="3"/>
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C857" s="3"/>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C858" s="3"/>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C859" s="3"/>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C860" s="3"/>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C861" s="3"/>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C863" s="3"/>
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C864" s="3"/>
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C865" s="3"/>
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C866" s="3"/>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C867" s="3"/>
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C868" s="3"/>
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C869" s="3"/>
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C870" s="3"/>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C871" s="3"/>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C872" s="3"/>
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C873" s="3"/>
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C874" s="3"/>
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C875" s="3"/>
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C876" s="3"/>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C877" s="3"/>
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C878" s="3"/>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C879" s="3"/>
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C880" s="3"/>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C881" s="3"/>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C882" s="3"/>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C883" s="3"/>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C884" s="3"/>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C885" s="3"/>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C886" s="3"/>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C887" s="3"/>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C888" s="3"/>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C889" s="3"/>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C890" s="3"/>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C891" s="3"/>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C892" s="3"/>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C893" s="3"/>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C894" s="3"/>
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C895" s="3"/>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C896" s="3"/>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C897" s="3"/>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C898" s="3"/>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C899" s="3"/>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C900" s="3"/>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C901" s="3"/>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C902" s="3"/>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C903" s="3"/>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C904" s="3"/>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C905" s="3"/>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C906" s="3"/>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C907" s="3"/>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C908" s="3"/>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C909" s="3"/>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C910" s="3"/>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C911" s="3"/>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C912" s="3"/>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C913" s="3"/>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C914" s="3"/>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C915" s="3"/>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C916" s="3"/>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C917" s="3"/>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C918" s="3"/>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C919" s="3"/>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C920" s="3"/>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C921" s="3"/>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C922" s="3"/>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C923" s="3"/>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C924" s="3"/>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C925" s="3"/>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C926" s="3"/>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C927" s="3"/>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C928" s="3"/>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C929" s="3"/>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C930" s="3"/>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C931" s="3"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C932" s="3"/>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C933" s="3"/>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C934" s="3"/>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C935" s="3"/>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C936" s="3"/>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C937" s="3"/>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C938" s="3"/>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C939" s="3"/>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C940" s="3"/>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C941" s="3"/>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C942" s="3"/>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C943" s="3"/>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C944" s="3"/>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C945" s="3"/>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C946" s="3"/>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C947" s="3"/>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C948" s="3"/>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C949" s="3"/>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C950" s="3"/>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C951" s="3"/>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C952" s="3"/>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C953" s="3"/>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C954" s="3"/>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C955" s="3"/>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C956" s="3"/>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C957" s="3"/>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C958" s="3"/>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C959" s="3"/>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C960" s="3"/>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C961" s="3"/>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C962" s="3"/>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C963" s="3"/>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C964" s="3"/>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C965" s="3"/>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C966" s="3"/>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C967" s="3"/>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C968" s="3"/>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C969" s="3"/>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C970" s="3"/>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C971" s="3"/>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C972" s="3"/>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C973" s="3"/>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C974" s="3"/>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C975" s="3"/>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C976" s="3"/>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C977" s="3"/>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C978" s="3"/>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C979" s="3"/>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C980" s="3"/>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C981" s="3"/>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C982" s="3"/>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C983" s="3"/>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C984" s="3"/>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C985" s="3"/>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C986" s="3"/>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C987" s="3"/>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C988" s="3"/>
+    </row>
+    <row r="989" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C989" s="3"/>
+    </row>
+    <row r="990" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C990" s="3"/>
+    </row>
+    <row r="991" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C991" s="3"/>
+    </row>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C992" s="3"/>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C993" s="3"/>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C994" s="3"/>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C995" s="3"/>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C996" s="3"/>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C997" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/H2coco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/dashboardWebsite/backend/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620ACC6-27C0-C246-9058-3FAC19E9F34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E7D92-F64D-F841-BF33-CD7B4FEB9DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21100" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB96091-FFF7-FA49-AAE0-56AC976AE7FD}">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,435 +472,451 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>3671</v>
+        <v>3765</v>
       </c>
       <c r="B2" s="4">
-        <v>45674</v>
+        <v>45715</v>
       </c>
       <c r="C2" s="2">
-        <v>0.61933000000000005</v>
+        <v>0.62995999999999996</v>
       </c>
       <c r="D2" s="6">
+        <v>4257</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3758</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45722</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63332999999999995</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4099.68</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3882</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45743</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.62868999999999997</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3979.95</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3884</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45750</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.63595000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4401</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3865</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45757</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.61829000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4293</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>3921</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45757</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3684.6</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3880</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4455</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3949</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4114.95</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>3950</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3979.95</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>3951</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3979.95</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3964</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="D12" s="6">
         <v>3801.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>3672</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45674</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.61933000000000005</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3966</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="D13" s="6">
         <v>3801.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3674</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45680</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.62709000000000004</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3970</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45764</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="D14" s="6">
         <v>3801.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3647</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3929</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63824000000000003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4066.2</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3930</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.63824000000000003</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4455</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>3933</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.63824000000000003</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4114.95</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>3934</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.63822999999999996</v>
+      </c>
+      <c r="D18" s="6">
         <v>3801.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3648</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3925.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3650</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3888.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>3651</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D8" s="6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>3953</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.63822999999999996</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>3954</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.63824000000000003</v>
+      </c>
+      <c r="D20" s="6">
         <v>4158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>3652</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>3653</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>3655</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>3680</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D12" s="6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>3978</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.63822999999999996</v>
+      </c>
+      <c r="D21" s="6">
         <v>3979.95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3725</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45685</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.62736000000000003</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>3607</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45687</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.62370000000000003</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5089.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>3606</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45688</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.62329000000000001</v>
-      </c>
-      <c r="D15" s="6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4004</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.63822999999999996</v>
+      </c>
+      <c r="D22" s="6">
         <v>3801.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>3644</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45688</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.62329000000000001</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>3712</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.62766999999999995</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4633.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>3713</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.62766999999999995</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4633.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>3726</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.62795000000000001</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4114.95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>3727</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.62795000000000001</v>
-      </c>
-      <c r="D20" s="6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4005</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.63822999999999996</v>
+      </c>
+      <c r="D23" s="6">
         <v>3801.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>3728</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.62802000000000002</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5702.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>3729</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.62785000000000002</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4074.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>3730</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45694</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.62795000000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3974.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>3731</v>
+        <v>4006</v>
       </c>
       <c r="B24" s="4">
-        <v>45694</v>
+        <v>45771</v>
       </c>
       <c r="C24" s="2">
-        <v>0.62795000000000001</v>
+        <v>0.63822999999999996</v>
       </c>
       <c r="D24" s="6">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>3676</v>
+        <v>3965</v>
       </c>
       <c r="B25" s="4">
-        <v>45694</v>
+        <v>45771</v>
       </c>
       <c r="C25" s="2">
-        <v>0.62787999999999999</v>
+        <v>0.63571</v>
       </c>
       <c r="D25" s="6">
         <v>3801.6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>3677</v>
+        <v>3967</v>
       </c>
       <c r="B26" s="4">
-        <v>45694</v>
+        <v>45771</v>
       </c>
       <c r="C26" s="2">
-        <v>0.62787999999999999</v>
+        <v>0.63571</v>
       </c>
       <c r="D26" s="6">
         <v>3801.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>3624</v>
+        <v>3969</v>
       </c>
       <c r="B27" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C27" s="2">
-        <v>0.62756999999999996</v>
+        <v>0.63571</v>
       </c>
       <c r="D27" s="6">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>3625</v>
+        <v>3972</v>
       </c>
       <c r="B28" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C28" s="2">
-        <v>0.62756999999999996</v>
+        <v>0.63571</v>
       </c>
       <c r="D28" s="6">
-        <v>3912.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>3626</v>
+        <v>3977</v>
       </c>
       <c r="B29" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C29" s="2">
-        <v>0.62756999999999996</v>
+        <v>0.63571</v>
       </c>
       <c r="D29" s="6">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>3757</v>
+        <v>3979</v>
       </c>
       <c r="B30" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C30" s="2">
-        <v>0.62756999999999996</v>
+        <v>0.63571</v>
       </c>
       <c r="D30" s="6">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>3723</v>
+        <v>3980</v>
       </c>
       <c r="B31" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C31" s="2">
-        <v>0.62775999999999998</v>
+        <v>0.63571</v>
       </c>
       <c r="D31" s="6">
         <v>3801.6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>3724</v>
+        <v>3981</v>
       </c>
       <c r="B32" s="4">
-        <v>45701</v>
+        <v>45771</v>
       </c>
       <c r="C32" s="2">
-        <v>0.62775999999999998</v>
+        <v>0.63571</v>
       </c>
       <c r="D32" s="6">
         <v>3801.6</v>
@@ -908,97 +924,97 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>3756</v>
+        <v>3850</v>
       </c>
       <c r="B33" s="4">
-        <v>45709</v>
+        <v>45778</v>
       </c>
       <c r="C33" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.64081999999999995</v>
       </c>
       <c r="D33" s="6">
-        <v>4158</v>
+        <v>4225.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>3772</v>
+        <v>3853</v>
       </c>
       <c r="B34" s="4">
-        <v>45709</v>
+        <v>45778</v>
       </c>
       <c r="C34" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.64081999999999995</v>
       </c>
       <c r="D34" s="6">
-        <v>4509</v>
+        <v>3858.15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>3804</v>
+        <v>3975</v>
       </c>
       <c r="B35" s="4">
-        <v>45709</v>
+        <v>45778</v>
       </c>
       <c r="C35" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.64081999999999995</v>
       </c>
       <c r="D35" s="6">
-        <v>4114.95</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3805</v>
+        <v>3976</v>
       </c>
       <c r="B36" s="4">
-        <v>45709</v>
+        <v>45778</v>
       </c>
       <c r="C36" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.64081999999999995</v>
       </c>
       <c r="D36" s="6">
-        <v>4293</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>3806</v>
+        <v>3991</v>
       </c>
       <c r="B37" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C37" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D37" s="6">
-        <v>4293</v>
+        <v>7603.2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>3807</v>
+        <v>3992</v>
       </c>
       <c r="B38" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C38" s="2">
-        <v>0.63351999999999997</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D38" s="6">
-        <v>4293</v>
+        <v>3801.6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>3667</v>
+        <v>3993</v>
       </c>
       <c r="B39" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C39" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D39" s="6">
         <v>3801.6</v>
@@ -1006,13 +1022,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>3722</v>
+        <v>3994</v>
       </c>
       <c r="B40" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C40" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D40" s="6">
         <v>3801.6</v>
@@ -1020,321 +1036,321 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>3733</v>
+        <v>4041</v>
       </c>
       <c r="B41" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C41" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D41" s="6">
-        <v>3801.6</v>
+        <v>7603.2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>3739</v>
+        <v>4043</v>
       </c>
       <c r="B42" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C42" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D42" s="6">
-        <v>3801.6</v>
+        <v>7724.7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>3745</v>
+        <v>4044</v>
       </c>
       <c r="B43" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C43" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="D43" s="6">
-        <v>3801.6</v>
+        <v>7724.7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>3773</v>
+        <v>3896</v>
       </c>
       <c r="B44" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C44" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.67127000000000003</v>
       </c>
       <c r="D44" s="6">
-        <v>3801.6</v>
+        <v>4375.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>3774</v>
+        <v>3897</v>
       </c>
       <c r="B45" s="4">
-        <v>45709</v>
+        <v>45784</v>
       </c>
       <c r="C45" s="2">
-        <v>0.63434000000000001</v>
+        <v>0.64700999999999997</v>
       </c>
       <c r="D45" s="6">
-        <v>3801.6</v>
+        <v>4375.8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>3765</v>
+        <v>3898</v>
       </c>
       <c r="B46" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>0.64700999999999997</v>
       </c>
       <c r="D46" s="6">
-        <v>4257</v>
+        <v>4375.8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>3766</v>
+        <v>3852</v>
       </c>
       <c r="B47" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C47" s="2">
-        <v>0.62990000000000002</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="D47" s="6">
-        <v>4257</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>3740</v>
+        <v>3955</v>
       </c>
       <c r="B48" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C48" s="2">
-        <v>0.62985000000000002</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="D48" s="6">
-        <v>3801.6</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>3789</v>
+        <v>3956</v>
       </c>
       <c r="B49" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C49" s="2">
-        <v>0.62985000000000002</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="D49" s="6">
-        <v>899.1</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>3792</v>
+        <v>3983</v>
       </c>
       <c r="B50" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C50" s="2">
-        <v>0.62985000000000002</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="D50" s="6">
-        <v>675</v>
+        <v>3888.15</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>3795</v>
+        <v>3985</v>
       </c>
       <c r="B51" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C51" s="2">
-        <v>0.62985000000000002</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="D51" s="6">
-        <v>1350</v>
+        <v>3888.15</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>3627</v>
+        <v>4007</v>
       </c>
       <c r="B52" s="4">
-        <v>45715</v>
+        <v>45784</v>
       </c>
       <c r="C52" s="2">
-        <v>0.63002999999999998</v>
+        <v>0.63756999999999997</v>
       </c>
       <c r="D52" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4028</v>
+      </c>
+      <c r="B53" s="4">
+        <v>45784</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.64844000000000002</v>
+      </c>
+      <c r="D53" s="6">
         <v>4158</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>3628</v>
-      </c>
-      <c r="B53" s="5">
-        <v>45715</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.63002999999999998</v>
-      </c>
-      <c r="D53" s="7">
-        <v>4428</v>
-      </c>
-    </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>3734</v>
-      </c>
-      <c r="B54" s="5">
-        <v>45715</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.63002999999999998</v>
-      </c>
-      <c r="D54" s="7">
-        <v>4158</v>
+      <c r="A54" s="2">
+        <v>4026</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45792</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.64412999999999998</v>
+      </c>
+      <c r="D54" s="6">
+        <v>7603.2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>3855</v>
+        <v>4027</v>
       </c>
       <c r="B55" s="5">
-        <v>45715</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.63002999999999998</v>
+        <v>45792</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.64412999999999998</v>
       </c>
       <c r="D55" s="7">
-        <v>4401</v>
+        <v>3801.6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>3856</v>
+        <v>3960</v>
       </c>
       <c r="B56" s="5">
-        <v>45715</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.63009999999999999</v>
+        <v>45792</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D56" s="7">
-        <v>4190.4799999999996</v>
+        <v>4101.45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>3758</v>
+        <v>4009</v>
       </c>
       <c r="B57" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.63332999999999995</v>
+        <v>45792</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D57" s="7">
-        <v>4099.68</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>3746</v>
+        <v>4010</v>
       </c>
       <c r="B58" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.63399000000000005</v>
+        <v>45792</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D58" s="7">
-        <v>3801.6</v>
+        <v>3801.9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>3797</v>
+        <v>4011</v>
       </c>
       <c r="B59" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.63400999999999996</v>
+        <v>45792</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D59" s="7">
-        <v>135</v>
+        <v>4066.2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>3798</v>
+        <v>4012</v>
       </c>
       <c r="B60" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.63400999999999996</v>
+        <v>45792</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D60" s="7">
-        <v>135</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>3816</v>
+        <v>4013</v>
       </c>
       <c r="B61" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.63399000000000005</v>
+        <v>45792</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D61" s="7">
-        <v>3801.6</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>3814</v>
+        <v>4014</v>
       </c>
       <c r="B62" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
+        <v>45792</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D62" s="7">
-        <v>3801.6</v>
+        <v>3801.9</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>3737</v>
+        <v>4031</v>
       </c>
       <c r="B63" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
+        <v>45792</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D63" s="7">
         <v>4158</v>
@@ -1342,1151 +1358,679 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>3747</v>
+        <v>4036</v>
       </c>
       <c r="B64" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
+        <v>45792</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.64161999999999997</v>
       </c>
       <c r="D64" s="7">
-        <v>3979.95</v>
+        <v>3801.9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>3748</v>
+        <v>4058</v>
       </c>
       <c r="B65" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D65" s="7">
-        <v>4293</v>
+        <v>4276.74</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>3751</v>
+        <v>4059</v>
       </c>
       <c r="B66" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D66" s="7">
-        <v>3801.9</v>
+        <v>4616.49</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>3753</v>
+        <v>4060</v>
       </c>
       <c r="B67" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D67" s="7">
-        <v>3801.9</v>
+        <v>4143.4799999999996</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>3755</v>
+        <v>4072</v>
       </c>
       <c r="B68" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D68" s="7">
-        <v>3974.4</v>
+        <v>4143.4799999999996</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>3759</v>
+        <v>4073</v>
       </c>
       <c r="B69" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D69" s="7">
-        <v>4347</v>
+        <v>4276.74</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>3760</v>
+        <v>4029</v>
       </c>
       <c r="B70" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.64265000000000005</v>
       </c>
       <c r="D70" s="7">
-        <v>4347</v>
+        <v>11404.8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>3763</v>
+        <v>4030</v>
       </c>
       <c r="B71" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.64265000000000005</v>
       </c>
       <c r="D71" s="7">
-        <v>2700</v>
+        <v>11404.8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>3764</v>
+        <v>4047</v>
       </c>
       <c r="B72" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.64764999999999995</v>
       </c>
       <c r="D72" s="7">
-        <v>2700</v>
+        <v>7603.2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>3809</v>
+        <v>4048</v>
       </c>
       <c r="B73" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.64265000000000005</v>
       </c>
       <c r="D73" s="7">
-        <v>4158</v>
+        <v>3801.6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>3810</v>
+        <v>4050</v>
       </c>
       <c r="B74" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.64764999999999995</v>
       </c>
       <c r="D74" s="7">
-        <v>4158</v>
+        <v>7603.2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>3811</v>
+        <v>4052</v>
       </c>
       <c r="B75" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.64265000000000005</v>
       </c>
       <c r="D75" s="7">
-        <v>4158</v>
+        <v>3801.6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>3813</v>
+        <v>4087</v>
       </c>
       <c r="B76" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
+        <v>45799</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.64217000000000002</v>
       </c>
       <c r="D76" s="7">
-        <v>4158</v>
+        <v>4616.49</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>3817</v>
+        <v>4061</v>
       </c>
       <c r="B77" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
+        <v>45806</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.64109000000000005</v>
       </c>
       <c r="D77" s="7">
-        <v>4293</v>
+        <v>7603.2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>3843</v>
+        <v>4008</v>
       </c>
       <c r="B78" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
+        <v>45806</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D78" s="7">
-        <v>4179.6000000000004</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>3892</v>
+        <v>4032</v>
       </c>
       <c r="B79" s="5">
-        <v>45722</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
+        <v>45806</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D79" s="7">
-        <v>4158</v>
+        <v>3979.95</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>3786</v>
+        <v>4033</v>
       </c>
       <c r="B80" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C80" s="3">
-        <v>0.63234999999999997</v>
+        <v>45806</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D80" s="7">
-        <v>899.1</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>3793</v>
+        <v>4034</v>
       </c>
       <c r="B81" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0.63234999999999997</v>
+        <v>45806</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D81" s="7">
-        <v>675</v>
+        <v>3979.95</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>3794</v>
+        <v>4035</v>
       </c>
       <c r="B82" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C82" s="3">
-        <v>0.63234999999999997</v>
+        <v>45806</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D82" s="7">
-        <v>1350</v>
+        <v>4201.2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>3761</v>
+        <v>4056</v>
       </c>
       <c r="B83" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0.63180999999999998</v>
+        <v>45806</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D83" s="7">
-        <v>4074.45</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>3768</v>
+        <v>4057</v>
       </c>
       <c r="B84" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0.63180999999999998</v>
+        <v>45806</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D84" s="7">
-        <v>4114.95</v>
+        <v>4101.45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>3769</v>
+        <v>4066</v>
       </c>
       <c r="B85" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.63180999999999998</v>
+        <v>45806</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D85" s="7">
-        <v>4201.2</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>3819</v>
+        <v>4104</v>
       </c>
       <c r="B86" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0.63180999999999998</v>
+        <v>45806</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.64151000000000002</v>
       </c>
       <c r="D86" s="7">
         <v>3979.95</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>3828</v>
-      </c>
-      <c r="B87" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D87" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>3829</v>
-      </c>
-      <c r="B88" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D88" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>3845</v>
-      </c>
-      <c r="B89" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D89" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>3877</v>
-      </c>
-      <c r="B90" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D90" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>3904</v>
-      </c>
-      <c r="B91" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C91" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D91" s="7">
-        <v>4551.8999999999996</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>3905</v>
-      </c>
-      <c r="B92" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C92" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D92" s="7">
-        <v>4847.74</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>3906</v>
-      </c>
-      <c r="B93" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C93" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D93" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>3799</v>
-      </c>
-      <c r="B94" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0.63278000000000001</v>
-      </c>
-      <c r="D94" s="7">
-        <v>4158.8100000000004</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>3854</v>
-      </c>
-      <c r="B95" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0.63278000000000001</v>
-      </c>
-      <c r="D95" s="7">
-        <v>4224</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>3876</v>
-      </c>
-      <c r="B96" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0.63278000000000001</v>
-      </c>
-      <c r="D96" s="7">
-        <v>4616.49</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>3893</v>
-      </c>
-      <c r="B97" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0.63278000000000001</v>
-      </c>
-      <c r="D97" s="7">
-        <v>4143.4799999999996</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>3907</v>
-      </c>
-      <c r="B98" s="5">
-        <v>45729</v>
-      </c>
-      <c r="C98" s="3">
-        <v>0.63180999999999998</v>
-      </c>
-      <c r="D98" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>3857</v>
-      </c>
-      <c r="B99" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C99" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D99" s="7">
-        <v>7603.2</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>3858</v>
-      </c>
-      <c r="B100" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C100" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D100" s="7">
-        <v>7603.2</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>3859</v>
-      </c>
-      <c r="B101" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C101" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D101" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>3886</v>
-      </c>
-      <c r="B102" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C102" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D102" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>3800</v>
-      </c>
-      <c r="B103" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C103" s="3">
-        <v>0.63331000000000004</v>
-      </c>
-      <c r="D103" s="7">
-        <v>4276.74</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>3801</v>
-      </c>
-      <c r="B104" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C104" s="3">
-        <v>0.63338000000000005</v>
-      </c>
-      <c r="D104" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>3887</v>
-      </c>
-      <c r="B105" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C105" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D105" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>3889</v>
-      </c>
-      <c r="B106" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C106" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D106" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>3890</v>
-      </c>
-      <c r="B107" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C107" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D107" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>3891</v>
-      </c>
-      <c r="B108" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C108" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D108" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>3894</v>
-      </c>
-      <c r="B109" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C109" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D109" s="7">
-        <v>675</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>3895</v>
-      </c>
-      <c r="B110" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C110" s="3">
-        <v>0.63341999999999998</v>
-      </c>
-      <c r="D110" s="7">
-        <v>899.1</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>3776</v>
-      </c>
-      <c r="B111" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C111" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D111" s="7">
-        <v>3888.15</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>3777</v>
-      </c>
-      <c r="B112" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C112" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D112" s="7">
-        <v>4066.2</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>3821</v>
-      </c>
-      <c r="B113" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C113" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D113" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>3822</v>
-      </c>
-      <c r="B114" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D114" s="7">
-        <v>4114.95</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>3823</v>
-      </c>
-      <c r="B115" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C115" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D115" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>3824</v>
-      </c>
-      <c r="B116" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C116" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D116" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>3826</v>
-      </c>
-      <c r="B117" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C117" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D117" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>3860</v>
-      </c>
-      <c r="B118" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C118" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D118" s="7">
-        <v>4401</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>3874</v>
-      </c>
-      <c r="B119" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C119" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D119" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
-        <v>3875</v>
-      </c>
-      <c r="B120" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C120" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D120" s="7">
-        <v>4455</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>3802</v>
-      </c>
-      <c r="B121" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C121" s="3">
-        <v>0.63338000000000005</v>
-      </c>
-      <c r="D121" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>3803</v>
-      </c>
-      <c r="B122" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C122" s="3">
-        <v>0.63338000000000005</v>
-      </c>
-      <c r="D122" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>3872</v>
-      </c>
-      <c r="B123" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C123" s="3">
-        <v>0.63338000000000005</v>
-      </c>
-      <c r="D123" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>3881</v>
-      </c>
-      <c r="B124" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C124" s="3">
-        <v>0.63334999999999997</v>
-      </c>
-      <c r="D124" s="7">
-        <v>4749.75</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>3901</v>
-      </c>
-      <c r="B125" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C125" s="3">
-        <v>0.63334000000000001</v>
-      </c>
-      <c r="D125" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>3908</v>
-      </c>
-      <c r="B126" s="5">
-        <v>45736</v>
-      </c>
-      <c r="C126" s="3">
-        <v>0.63258999999999999</v>
-      </c>
-      <c r="D126" s="7">
-        <v>4544.53</v>
-      </c>
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>3902</v>
-      </c>
-      <c r="B127" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C127" s="3">
-        <v>0.62895999999999996</v>
-      </c>
-      <c r="D127" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>3903</v>
-      </c>
-      <c r="B128" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C128" s="3">
-        <v>0.62895999999999996</v>
-      </c>
-      <c r="D128" s="7">
-        <v>4410</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>3741</v>
-      </c>
-      <c r="B129" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C129" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D129" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>3885</v>
-      </c>
-      <c r="B130" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C130" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D130" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>3888</v>
-      </c>
-      <c r="B131" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C131" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D131" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <v>3915</v>
-      </c>
-      <c r="B132" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C132" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D132" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>3942</v>
-      </c>
-      <c r="B133" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C133" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D133" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>3943</v>
-      </c>
-      <c r="B134" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C134" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D134" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>3944</v>
-      </c>
-      <c r="B135" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C135" s="3">
-        <v>0.62844</v>
-      </c>
-      <c r="D135" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>3778</v>
-      </c>
-      <c r="B136" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C136" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D136" s="7">
-        <v>3974.4</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>3832</v>
-      </c>
-      <c r="B137" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C137" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D137" s="7">
-        <v>4066.2</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>3833</v>
-      </c>
-      <c r="B138" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C138" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D138" s="7">
-        <v>3888.15</v>
-      </c>
+      <c r="A138" s="3"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>3834</v>
-      </c>
-      <c r="B139" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C139" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D139" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>3835</v>
-      </c>
-      <c r="B140" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C140" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D140" s="7">
-        <v>3801.9</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>3836</v>
-      </c>
-      <c r="B141" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C141" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D141" s="7">
-        <v>4066.2</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>3879</v>
-      </c>
-      <c r="B142" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C142" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D142" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>3882</v>
-      </c>
-      <c r="B143" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C143" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D143" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>3913</v>
-      </c>
-      <c r="B144" s="5">
-        <v>45743</v>
-      </c>
-      <c r="C144" s="3">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D144" s="7">
-        <v>3888.15</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>3546</v>
-      </c>
-      <c r="B145" s="5">
-        <v>45709</v>
-      </c>
-      <c r="C145" s="3">
-        <v>0.63263000000000003</v>
-      </c>
-      <c r="D145" s="7">
-        <v>14586</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="H145" s="3"/>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/dashboardWebsite/backend/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E7D92-F64D-F841-BF33-CD7B4FEB9DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7269C1-DE4E-A44A-B999-220B3A7E60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21100" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -113,6 +113,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB96091-FFF7-FA49-AAE0-56AC976AE7FD}">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,1210 +474,738 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>3765</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45715</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.62995999999999996</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4257</v>
+      <c r="A2" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9683.94</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>3758</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45722</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.63332999999999995</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4099.68</v>
+      <c r="A3" s="3">
+        <v>3882</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9286.5499999999993</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3882</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45743</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.62868999999999997</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="3">
+        <v>3955</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9830.0400000000009</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3956</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9521.82</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3960</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9570.0499999999993</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3985</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9072.35</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4007</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8821.51</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>4008</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9526.44</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4013</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9841.44</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4014</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8871.1</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>4031</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9526.44</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4118</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4158</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4119</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4201.2</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>4120</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4455</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>4121</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4293</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>4148</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4241.7</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4150</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D18" s="8">
         <v>3979.95</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3884</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45750</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.63595000000000002</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4401</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3865</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45757</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.61829000000000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4293</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3921</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45757</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.61829999999999996</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3684.6</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>3880</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.63565000000000005</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4455</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>3949</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.63565000000000005</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4114.95</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>3950</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.63565000000000005</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3979.95</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>3951</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.63565000000000005</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3979.95</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>3964</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3801.6</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3966</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3801.6</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>3970</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45764</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3801.6</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>3929</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63824000000000003</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4066.2</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>3930</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.63824000000000003</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4455</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>3933</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.63824000000000003</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4114.95</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>3934</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D18" s="6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>4151</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>4152</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D20" s="8">
         <v>3801.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>3953</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>3954</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.63824000000000003</v>
-      </c>
-      <c r="D20" s="6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>4167</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D21" s="8">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>4169</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>4173</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>4174</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3884.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>4181</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D25" s="8">
         <v>4158</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>3978</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3979.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>4004</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>4005</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>4006</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.63822999999999996</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>3965</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3801.6</v>
-      </c>
-    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>3967</v>
-      </c>
-      <c r="B26" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3801.6</v>
+      <c r="A26" s="3">
+        <v>4196</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4197.75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>3969</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3801.6</v>
+      <c r="A27" s="3">
+        <v>4226</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45834</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.65142</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>3972</v>
-      </c>
-      <c r="B28" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>3977</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>3979</v>
-      </c>
-      <c r="B30" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>3980</v>
-      </c>
-      <c r="B31" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>3981</v>
-      </c>
-      <c r="B32" s="4">
-        <v>45771</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.63571</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>3850</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45778</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.64081999999999995</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4225.5</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>3853</v>
-      </c>
-      <c r="B34" s="4">
-        <v>45778</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.64081999999999995</v>
-      </c>
-      <c r="D34" s="6">
-        <v>3858.15</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>3975</v>
-      </c>
-      <c r="B35" s="4">
-        <v>45778</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.64081999999999995</v>
-      </c>
-      <c r="D35" s="6">
-        <v>4293</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>3976</v>
-      </c>
-      <c r="B36" s="4">
-        <v>45778</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.64081999999999995</v>
-      </c>
-      <c r="D36" s="6">
-        <v>4158</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>3991</v>
-      </c>
-      <c r="B37" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D37" s="6">
-        <v>7603.2</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>3992</v>
-      </c>
-      <c r="B38" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>3993</v>
-      </c>
-      <c r="B39" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D39" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>3994</v>
-      </c>
-      <c r="B40" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D40" s="6">
-        <v>3801.6</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>4041</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D41" s="6">
-        <v>7603.2</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>4043</v>
-      </c>
-      <c r="B42" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D42" s="6">
-        <v>7724.7</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>4044</v>
-      </c>
-      <c r="B43" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="D43" s="6">
-        <v>7724.7</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>3896</v>
-      </c>
-      <c r="B44" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.67127000000000003</v>
-      </c>
-      <c r="D44" s="6">
-        <v>4375.8</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>3897</v>
-      </c>
-      <c r="B45" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.64700999999999997</v>
-      </c>
-      <c r="D45" s="6">
-        <v>4375.8</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>3898</v>
-      </c>
-      <c r="B46" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.64700999999999997</v>
-      </c>
-      <c r="D46" s="6">
-        <v>4375.8</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>3852</v>
-      </c>
-      <c r="B47" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D47" s="6">
-        <v>4275</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>3955</v>
-      </c>
-      <c r="B48" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4293</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>3956</v>
-      </c>
-      <c r="B49" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D49" s="6">
-        <v>4158</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>3983</v>
-      </c>
-      <c r="B50" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3888.15</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>3985</v>
-      </c>
-      <c r="B51" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D51" s="6">
-        <v>3888.15</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>4007</v>
-      </c>
-      <c r="B52" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.63756999999999997</v>
-      </c>
-      <c r="D52" s="6">
-        <v>3801.9</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>4028</v>
-      </c>
-      <c r="B53" s="4">
-        <v>45784</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.64844000000000002</v>
-      </c>
-      <c r="D53" s="6">
-        <v>4158</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>4026</v>
-      </c>
-      <c r="B54" s="4">
-        <v>45792</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.64412999999999998</v>
-      </c>
-      <c r="D54" s="6">
-        <v>7603.2</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>4027</v>
-      </c>
-      <c r="B55" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.64412999999999998</v>
-      </c>
-      <c r="D55" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>3960</v>
-      </c>
-      <c r="B56" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D56" s="7">
-        <v>4101.45</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>4009</v>
-      </c>
-      <c r="B57" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D57" s="7">
-        <v>4293</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>4010</v>
-      </c>
-      <c r="B58" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D58" s="7">
-        <v>3801.9</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>4011</v>
-      </c>
-      <c r="B59" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4066.2</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>4012</v>
-      </c>
-      <c r="B60" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D60" s="7">
-        <v>4455</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>4013</v>
-      </c>
-      <c r="B61" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D61" s="7">
-        <v>4293</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>4014</v>
-      </c>
-      <c r="B62" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3801.9</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>4031</v>
-      </c>
-      <c r="B63" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D63" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>4036</v>
-      </c>
-      <c r="B64" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.64161999999999997</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3801.9</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>4058</v>
-      </c>
-      <c r="B65" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D65" s="7">
-        <v>4276.74</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>4059</v>
-      </c>
-      <c r="B66" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D66" s="7">
-        <v>4616.49</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>4060</v>
-      </c>
-      <c r="B67" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D67" s="7">
-        <v>4143.4799999999996</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>4072</v>
-      </c>
-      <c r="B68" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D68" s="7">
-        <v>4143.4799999999996</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>4073</v>
-      </c>
-      <c r="B69" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D69" s="7">
-        <v>4276.74</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>4029</v>
-      </c>
-      <c r="B70" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.64265000000000005</v>
-      </c>
-      <c r="D70" s="7">
-        <v>11404.8</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>4030</v>
-      </c>
-      <c r="B71" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.64265000000000005</v>
-      </c>
-      <c r="D71" s="7">
-        <v>11404.8</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>4047</v>
-      </c>
-      <c r="B72" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.64764999999999995</v>
-      </c>
-      <c r="D72" s="7">
-        <v>7603.2</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>4048</v>
-      </c>
-      <c r="B73" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.64265000000000005</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>4050</v>
-      </c>
-      <c r="B74" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0.64764999999999995</v>
-      </c>
-      <c r="D74" s="7">
-        <v>7603.2</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>4052</v>
-      </c>
-      <c r="B75" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0.64265000000000005</v>
-      </c>
-      <c r="D75" s="7">
-        <v>3801.6</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>4087</v>
-      </c>
-      <c r="B76" s="5">
-        <v>45799</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0.64217000000000002</v>
-      </c>
-      <c r="D76" s="7">
-        <v>4616.49</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>4061</v>
-      </c>
-      <c r="B77" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0.64109000000000005</v>
-      </c>
-      <c r="D77" s="7">
-        <v>7603.2</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>4008</v>
-      </c>
-      <c r="B78" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D78" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>4032</v>
-      </c>
-      <c r="B79" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D79" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>4033</v>
-      </c>
-      <c r="B80" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D80" s="7">
-        <v>5400</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>4034</v>
-      </c>
-      <c r="B81" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D81" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>4035</v>
-      </c>
-      <c r="B82" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D82" s="7">
-        <v>4201.2</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>4056</v>
-      </c>
-      <c r="B83" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D83" s="7">
-        <v>4293</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>4057</v>
-      </c>
-      <c r="B84" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D84" s="7">
-        <v>4101.45</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>4066</v>
-      </c>
-      <c r="B85" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D85" s="7">
-        <v>4158</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>4104</v>
-      </c>
-      <c r="B86" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0.64151000000000002</v>
-      </c>
-      <c r="D86" s="7">
-        <v>3979.95</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/dashboardWebsite/backend/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7269C1-DE4E-A44A-B999-220B3A7E60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE04B843-7BB9-2A42-9FBA-2FC345A4BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
   </bookViews>
@@ -104,16 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB96091-FFF7-FA49-AAE0-56AC976AE7FD}">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,3653 +472,4365 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>3850</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="2">
+        <v>3765</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45715</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.62995999999999996</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4257</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3758</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45722</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63332999999999995</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4099.68</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3930</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45771</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.63824000000000003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4455</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3976</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45778</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.64081999999999995</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4158</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3991</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45784</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4041</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45784</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>4027</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.64412999999999998</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3801.6</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4010</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.64161999999999997</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3801.9</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4011</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64161999999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4066.2</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4029</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.64265000000000005</v>
+      </c>
+      <c r="D11" s="6">
+        <v>11404.8</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>4058</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4276.74</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4059</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4616.49</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4072</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4143.4799999999996</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4073</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4276.74</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4087</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4616.49</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4047</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.64764999999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4048</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.64265000000000005</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4050</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.64764999999999995</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7603.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4052</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.64265000000000005</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4033</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4034</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4035</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4201.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>4056</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4057</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4101.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4066</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4061</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.64109000000000005</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7603.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4107</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7054.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4109</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7127.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>4112</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4069</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>4089</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4103</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2254.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>4105</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4106</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>4108</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4110</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>4111</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4113</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>4114</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4138</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4139</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4062</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4063</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4064</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4074</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4075</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4076</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4140</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7916.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4142</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D50" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4144</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>4146</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D52" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4070</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4252.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>4071</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D54" s="6">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4115</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D55" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4116</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D56" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4117</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>4137</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>4141</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>4145</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>4095</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4097</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>4098</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>4068</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>4083</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4084</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>4085</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>4090</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D69" s="5">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>4122</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>4143</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>4147</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>4149</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>4153</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>4155</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>4165</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D76" s="5">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>4166</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3967.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>4168</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3967.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4171</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>4195</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D80" s="5">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>4199</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>4124</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4125</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>4126</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>4156</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>4157</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>4158</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>4159</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>4170</v>
+      </c>
+      <c r="B89" s="3">
         <v>45834</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C89" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D89" s="5">
+        <v>7127.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>4172</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D90" s="5">
+        <v>7054.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>4197</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D91" s="5">
+        <v>7916.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>4198</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D92" s="5">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>4200</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D93" s="5">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>4091</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>4092</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>4221</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>4118</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C97" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D2" s="8">
-        <v>9683.94</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>3882</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="D97" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>4119</v>
+      </c>
+      <c r="B98" s="3">
         <v>45834</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C98" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D3" s="8">
-        <v>9286.5499999999993</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3955</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="D98" s="5">
+        <v>4201.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>4120</v>
+      </c>
+      <c r="B99" s="3">
         <v>45834</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C99" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D4" s="8">
-        <v>9830.0400000000009</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3956</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="D99" s="5">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>4121</v>
+      </c>
+      <c r="B100" s="3">
         <v>45834</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C100" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D5" s="8">
-        <v>9521.82</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3960</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="D100" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>4148</v>
+      </c>
+      <c r="B101" s="3">
         <v>45834</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C101" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D6" s="8">
-        <v>9570.0499999999993</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3985</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="D101" s="5">
+        <v>4241.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>4150</v>
+      </c>
+      <c r="B102" s="3">
         <v>45834</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C102" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D7" s="8">
-        <v>9072.35</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>4007</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="D102" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>4151</v>
+      </c>
+      <c r="B103" s="3">
         <v>45834</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C103" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D8" s="8">
-        <v>8821.51</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>4008</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="D103" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>4152</v>
+      </c>
+      <c r="B104" s="3">
         <v>45834</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C104" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D9" s="8">
-        <v>9526.44</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="D104" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>4167</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D105" s="5">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>4169</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D106" s="5">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>4173</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D107" s="5">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>4174</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D108" s="5">
+        <v>3884.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>4181</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D109" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>4196</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D110" s="5">
+        <v>4197.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>4226</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D111" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>4013</v>
       </c>
-      <c r="B10" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B112" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.64161999999999997</v>
+      </c>
+      <c r="D112" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>4014</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.64161999999999997</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>4013</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C114" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D114" s="5">
         <v>9841.44</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>4014</v>
       </c>
-      <c r="B11" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B115" s="3">
+        <v>45792</v>
+      </c>
+      <c r="C115" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D115" s="5">
         <v>8871.1</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>4031</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D12" s="8">
-        <v>9526.44</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4118</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4158</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4119</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4201.2</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>4120</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4455</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>4121</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4293</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>4148</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D17" s="8">
-        <v>4241.7</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>4150</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3979.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>4151</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>4152</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>4167</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D21" s="8">
-        <v>15870</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>4169</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D22" s="8">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>4173</v>
-      </c>
-      <c r="B23" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D23" s="8">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>4174</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3884.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>4181</v>
-      </c>
-      <c r="B25" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D25" s="8">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>4196</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D26" s="8">
-        <v>4197.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>4226</v>
-      </c>
-      <c r="B27" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D27" s="8">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="7"/>
+      <c r="A116" s="2">
+        <v>4182</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.64864999999999995</v>
+      </c>
+      <c r="D116" s="5">
+        <v>4667.2700000000004</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="7"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="7"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="7"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="7"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="7"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="7"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="7"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="7"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="7"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="7"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="7"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="7"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="7"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="7"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="7"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="7"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="7"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="7"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="7"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="7"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="7"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="7"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="7"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="7"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="7"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="7"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="7"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="7"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C146" s="3"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C147" s="3"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C148" s="3"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C149" s="3"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C150" s="3"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C151" s="3"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C152" s="3"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C153" s="3"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C154" s="3"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C155" s="3"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C156" s="3"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C157" s="3"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C158" s="3"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C159" s="3"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C160" s="3"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="3"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="3"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="3"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="3"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="3"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="3"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="3"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="3"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="3"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="3"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="3"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="3"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="3"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="3"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="3"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="3"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="3"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="3"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="3"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" s="3"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="3"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" s="3"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="3"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="3"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="3"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="3"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="3"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="3"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="3"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="3"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="3"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" s="3"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="3"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="3"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="3"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="3"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="3"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="3"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="3"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="3"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="3"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="3"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="3"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" s="3"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="3"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="3"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="3"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="3"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="3"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="3"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="3"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="3"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="3"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="3"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="3"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="3"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="3"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="3"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="3"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="3"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="3"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="3"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="3"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="3"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="3"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="3"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="3"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="3"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="3"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="3"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="3"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="3"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="3"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="3"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="3"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C241" s="3"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="3"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="3"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="3"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="3"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="3"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="3"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C249" s="3"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="3"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="3"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="3"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C253" s="3"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="3"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C255" s="3"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="3"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="3"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="3"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C259" s="3"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="3"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="3"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="3"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="3"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="3"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="3"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="3"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="3"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C268" s="3"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="3"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="3"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C271" s="3"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="3"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C273" s="3"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="3"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C275" s="3"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="3"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C277" s="3"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="3"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="3"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="3"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C281" s="3"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="3"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C283" s="3"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="3"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C285" s="3"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="3"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C287" s="3"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="3"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C289" s="3"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="3"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="3"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="3"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C293" s="3"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="3"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="3"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C296" s="3"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="3"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C298" s="3"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="3"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C300" s="3"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="3"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C302" s="3"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="3"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="3"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="3"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C306" s="3"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="3"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="3"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C309" s="3"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="3"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C311" s="3"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C312" s="3"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="3"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="3"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C315" s="3"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C316" s="3"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C317" s="3"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="3"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="3"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C320" s="3"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="3"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C322" s="3"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C323" s="3"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="3"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="3"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="3"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="3"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="3"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C329" s="3"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C330" s="3"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="3"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="3"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="3"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="3"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="3"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="3"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="3"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="3"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="3"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="3"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C341" s="3"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C342" s="3"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="3"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="3"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="3"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="3"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="3"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="3"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="3"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="3"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="3"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="3"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="3"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="3"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="3"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="3"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="3"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="3"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C359" s="3"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="3"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C361" s="3"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="3"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="3"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="3"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="3"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="3"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="3"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="3"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="3"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="3"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="3"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C372" s="3"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="3"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="3"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C375" s="3"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="3"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="3"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="3"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C379" s="3"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="3"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C381" s="3"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="3"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="3"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="3"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="3"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="3"/>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="3"/>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="3"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="3"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="3"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="3"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="3"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="3"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="3"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C395" s="3"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="3"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="3"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C398" s="3"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C399" s="3"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="3"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C401" s="3"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C402" s="3"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C403" s="3"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C404" s="3"/>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C405" s="3"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C406" s="3"/>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="3"/>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C408" s="3"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C409" s="3"/>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C410" s="3"/>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C411" s="3"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C412" s="3"/>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C413" s="3"/>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C414" s="3"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C415" s="3"/>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C416" s="3"/>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C417" s="3"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C418" s="3"/>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C419" s="3"/>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C420" s="3"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C421" s="3"/>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C422" s="3"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C423" s="3"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C424" s="3"/>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C425" s="3"/>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C426" s="3"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C427" s="3"/>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C428" s="3"/>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C429" s="3"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C430" s="3"/>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C431" s="3"/>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C432" s="3"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C433" s="3"/>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C434" s="3"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="3"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C436" s="3"/>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C437" s="3"/>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C438" s="3"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C439" s="3"/>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C440" s="3"/>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C441" s="3"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C442" s="3"/>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C443" s="3"/>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C444" s="3"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C445" s="3"/>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C446" s="3"/>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C447" s="3"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C448" s="3"/>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C449" s="3"/>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C450" s="3"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C451" s="3"/>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C452" s="3"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C453" s="3"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C454" s="3"/>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C455" s="3"/>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C456" s="3"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C457" s="3"/>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C458" s="3"/>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C459" s="3"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C460" s="3"/>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C461" s="3"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C462" s="3"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C463" s="3"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C464" s="3"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C465" s="3"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C466" s="3"/>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C467" s="3"/>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C468" s="3"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C469" s="3"/>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C470" s="3"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C471" s="3"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C472" s="3"/>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C473" s="3"/>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C474" s="3"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C475" s="3"/>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C476" s="3"/>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C477" s="3"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C478" s="3"/>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C479" s="3"/>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C480" s="3"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C481" s="3"/>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C482" s="3"/>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="3"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C484" s="3"/>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C485" s="3"/>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C486" s="3"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="3"/>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C488" s="3"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C489" s="3"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="3"/>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C491" s="3"/>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C492" s="3"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C493" s="3"/>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C494" s="3"/>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C495" s="3"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C496" s="3"/>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="3"/>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C498" s="3"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C499" s="3"/>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C500" s="3"/>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C501" s="3"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C502" s="3"/>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C503" s="3"/>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C504" s="3"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C505" s="3"/>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C506" s="3"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C507" s="3"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C508" s="3"/>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C509" s="3"/>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C510" s="3"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C511" s="3"/>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C512" s="3"/>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C513" s="3"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C514" s="3"/>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C515" s="3"/>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C516" s="3"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C517" s="3"/>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C518" s="3"/>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C519" s="3"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C520" s="3"/>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C521" s="3"/>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C522" s="3"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C523" s="3"/>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C524" s="3"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C525" s="3"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C526" s="3"/>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C527" s="3"/>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C528" s="3"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C529" s="3"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C530" s="3"/>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C531" s="3"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C532" s="3"/>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C533" s="3"/>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C534" s="3"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C535" s="3"/>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C536" s="3"/>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C537" s="3"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C538" s="3"/>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C539" s="3"/>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C540" s="3"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C541" s="3"/>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C542" s="3"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C543" s="3"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C544" s="3"/>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C545" s="3"/>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C546" s="3"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C547" s="3"/>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C548" s="3"/>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C549" s="3"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C550" s="3"/>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C551" s="3"/>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C552" s="3"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C553" s="3"/>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C554" s="3"/>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C555" s="3"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C556" s="3"/>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C557" s="3"/>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C558" s="3"/>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C559" s="3"/>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C560" s="3"/>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C561" s="3"/>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C562" s="3"/>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C563" s="3"/>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C564" s="3"/>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C565" s="3"/>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C566" s="3"/>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C567" s="3"/>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C568" s="3"/>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C569" s="3"/>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C570" s="3"/>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C571" s="3"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C572" s="3"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C573" s="3"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C574" s="3"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C575" s="3"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C576" s="3"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C577" s="3"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C578" s="3"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C579" s="3"/>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C580" s="3"/>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C581" s="3"/>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C582" s="3"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C583" s="3"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C584" s="3"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C585" s="3"/>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C586" s="3"/>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C587" s="3"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C588" s="3"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C589" s="3"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C590" s="3"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C591" s="3"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C592" s="3"/>
+      <c r="C592" s="2"/>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C593" s="3"/>
+      <c r="C593" s="2"/>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C594" s="3"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C595" s="3"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C596" s="3"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C597" s="3"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C598" s="3"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C599" s="3"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C600" s="3"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C601" s="3"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C602" s="3"/>
+      <c r="C602" s="2"/>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C603" s="3"/>
+      <c r="C603" s="2"/>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C604" s="3"/>
+      <c r="C604" s="2"/>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C605" s="3"/>
+      <c r="C605" s="2"/>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C606" s="3"/>
+      <c r="C606" s="2"/>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C607" s="3"/>
+      <c r="C607" s="2"/>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C608" s="3"/>
+      <c r="C608" s="2"/>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C609" s="3"/>
+      <c r="C609" s="2"/>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C610" s="3"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C611" s="3"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C612" s="3"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C613" s="3"/>
+      <c r="C613" s="2"/>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C614" s="3"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C615" s="3"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C616" s="3"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C617" s="3"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C618" s="3"/>
+      <c r="C618" s="2"/>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C619" s="3"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C620" s="3"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C621" s="3"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C622" s="3"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C623" s="3"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C624" s="3"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C625" s="3"/>
+      <c r="C625" s="2"/>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C626" s="3"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C627" s="3"/>
+      <c r="C627" s="2"/>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C628" s="3"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C629" s="3"/>
+      <c r="C629" s="2"/>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C630" s="3"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C631" s="3"/>
+      <c r="C631" s="2"/>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C632" s="3"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C633" s="3"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C634" s="3"/>
+      <c r="C634" s="2"/>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C635" s="3"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C636" s="3"/>
+      <c r="C636" s="2"/>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C637" s="3"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C638" s="3"/>
+      <c r="C638" s="2"/>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C639" s="3"/>
+      <c r="C639" s="2"/>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C640" s="3"/>
+      <c r="C640" s="2"/>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C641" s="3"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C642" s="3"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C643" s="3"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C644" s="3"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C645" s="3"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C646" s="3"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C647" s="3"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C648" s="3"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C649" s="3"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C650" s="3"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C651" s="3"/>
+      <c r="C651" s="2"/>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C652" s="3"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C653" s="3"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C654" s="3"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C655" s="3"/>
+      <c r="C655" s="2"/>
     </row>
     <row r="656" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C656" s="3"/>
+      <c r="C656" s="2"/>
     </row>
     <row r="657" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C657" s="3"/>
+      <c r="C657" s="2"/>
     </row>
     <row r="658" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C658" s="3"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C659" s="3"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C660" s="3"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C661" s="3"/>
+      <c r="C661" s="2"/>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C662" s="3"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C663" s="3"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C664" s="3"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C665" s="3"/>
+      <c r="C665" s="2"/>
     </row>
     <row r="666" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C666" s="3"/>
+      <c r="C666" s="2"/>
     </row>
     <row r="667" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C667" s="3"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C668" s="3"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C669" s="3"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C670" s="3"/>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C671" s="3"/>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C672" s="3"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C673" s="3"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C674" s="3"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C675" s="3"/>
+      <c r="C675" s="2"/>
     </row>
     <row r="676" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C676" s="3"/>
+      <c r="C676" s="2"/>
     </row>
     <row r="677" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C677" s="3"/>
+      <c r="C677" s="2"/>
     </row>
     <row r="678" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C678" s="3"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C679" s="3"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C680" s="3"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C681" s="3"/>
+      <c r="C681" s="2"/>
     </row>
     <row r="682" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C682" s="3"/>
+      <c r="C682" s="2"/>
     </row>
     <row r="683" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C683" s="3"/>
+      <c r="C683" s="2"/>
     </row>
     <row r="684" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C684" s="3"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C685" s="3"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C686" s="3"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C687" s="3"/>
+      <c r="C687" s="2"/>
     </row>
     <row r="688" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C688" s="3"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C689" s="3"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C690" s="3"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C691" s="3"/>
+      <c r="C691" s="2"/>
     </row>
     <row r="692" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C692" s="3"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C693" s="3"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C694" s="3"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C695" s="3"/>
+      <c r="C695" s="2"/>
     </row>
     <row r="696" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C696" s="3"/>
+      <c r="C696" s="2"/>
     </row>
     <row r="697" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C697" s="3"/>
+      <c r="C697" s="2"/>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C698" s="3"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C699" s="3"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C700" s="3"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C701" s="3"/>
+      <c r="C701" s="2"/>
     </row>
     <row r="702" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C702" s="3"/>
+      <c r="C702" s="2"/>
     </row>
     <row r="703" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C703" s="3"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C704" s="3"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C705" s="3"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C706" s="3"/>
+      <c r="C706" s="2"/>
     </row>
     <row r="707" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C707" s="3"/>
+      <c r="C707" s="2"/>
     </row>
     <row r="708" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C708" s="3"/>
+      <c r="C708" s="2"/>
     </row>
     <row r="709" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C709" s="3"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C710" s="3"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C711" s="3"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C712" s="3"/>
+      <c r="C712" s="2"/>
     </row>
     <row r="713" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C713" s="3"/>
+      <c r="C713" s="2"/>
     </row>
     <row r="714" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C714" s="3"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C715" s="3"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C716" s="3"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C717" s="3"/>
+      <c r="C717" s="2"/>
     </row>
     <row r="718" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C718" s="3"/>
+      <c r="C718" s="2"/>
     </row>
     <row r="719" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C719" s="3"/>
+      <c r="C719" s="2"/>
     </row>
     <row r="720" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C720" s="3"/>
+      <c r="C720" s="2"/>
     </row>
     <row r="721" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C721" s="3"/>
+      <c r="C721" s="2"/>
     </row>
     <row r="722" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C722" s="3"/>
+      <c r="C722" s="2"/>
     </row>
     <row r="723" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C723" s="3"/>
+      <c r="C723" s="2"/>
     </row>
     <row r="724" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C724" s="3"/>
+      <c r="C724" s="2"/>
     </row>
     <row r="725" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C725" s="3"/>
+      <c r="C725" s="2"/>
     </row>
     <row r="726" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C726" s="3"/>
+      <c r="C726" s="2"/>
     </row>
     <row r="727" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C727" s="3"/>
+      <c r="C727" s="2"/>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C728" s="3"/>
+      <c r="C728" s="2"/>
     </row>
     <row r="729" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C729" s="3"/>
+      <c r="C729" s="2"/>
     </row>
     <row r="730" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C730" s="3"/>
+      <c r="C730" s="2"/>
     </row>
     <row r="731" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C731" s="3"/>
+      <c r="C731" s="2"/>
     </row>
     <row r="732" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C732" s="3"/>
+      <c r="C732" s="2"/>
     </row>
     <row r="733" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C733" s="3"/>
+      <c r="C733" s="2"/>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C734" s="3"/>
+      <c r="C734" s="2"/>
     </row>
     <row r="735" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C735" s="3"/>
+      <c r="C735" s="2"/>
     </row>
     <row r="736" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C736" s="3"/>
+      <c r="C736" s="2"/>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C737" s="3"/>
+      <c r="C737" s="2"/>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C738" s="3"/>
+      <c r="C738" s="2"/>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C739" s="3"/>
+      <c r="C739" s="2"/>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C740" s="3"/>
+      <c r="C740" s="2"/>
     </row>
     <row r="741" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C741" s="3"/>
+      <c r="C741" s="2"/>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C742" s="3"/>
+      <c r="C742" s="2"/>
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C743" s="3"/>
+      <c r="C743" s="2"/>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C744" s="3"/>
+      <c r="C744" s="2"/>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C745" s="3"/>
+      <c r="C745" s="2"/>
     </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C746" s="3"/>
+      <c r="C746" s="2"/>
     </row>
     <row r="747" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C747" s="3"/>
+      <c r="C747" s="2"/>
     </row>
     <row r="748" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C748" s="3"/>
+      <c r="C748" s="2"/>
     </row>
     <row r="749" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C749" s="3"/>
+      <c r="C749" s="2"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C750" s="3"/>
+      <c r="C750" s="2"/>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C751" s="3"/>
+      <c r="C751" s="2"/>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C752" s="3"/>
+      <c r="C752" s="2"/>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C753" s="3"/>
+      <c r="C753" s="2"/>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C754" s="3"/>
+      <c r="C754" s="2"/>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C755" s="3"/>
+      <c r="C755" s="2"/>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C756" s="3"/>
+      <c r="C756" s="2"/>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C757" s="3"/>
+      <c r="C757" s="2"/>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C758" s="3"/>
+      <c r="C758" s="2"/>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C759" s="3"/>
+      <c r="C759" s="2"/>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C760" s="3"/>
+      <c r="C760" s="2"/>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C761" s="3"/>
+      <c r="C761" s="2"/>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C762" s="3"/>
+      <c r="C762" s="2"/>
     </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C763" s="3"/>
+      <c r="C763" s="2"/>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C764" s="3"/>
+      <c r="C764" s="2"/>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C765" s="3"/>
+      <c r="C765" s="2"/>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C766" s="3"/>
+      <c r="C766" s="2"/>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C767" s="3"/>
+      <c r="C767" s="2"/>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C768" s="3"/>
+      <c r="C768" s="2"/>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C769" s="3"/>
+      <c r="C769" s="2"/>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C770" s="3"/>
+      <c r="C770" s="2"/>
     </row>
     <row r="771" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C771" s="3"/>
+      <c r="C771" s="2"/>
     </row>
     <row r="772" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C772" s="3"/>
+      <c r="C772" s="2"/>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C773" s="3"/>
+      <c r="C773" s="2"/>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C774" s="3"/>
+      <c r="C774" s="2"/>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C775" s="3"/>
+      <c r="C775" s="2"/>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C776" s="3"/>
+      <c r="C776" s="2"/>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C777" s="3"/>
+      <c r="C777" s="2"/>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C778" s="3"/>
+      <c r="C778" s="2"/>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C779" s="3"/>
+      <c r="C779" s="2"/>
     </row>
     <row r="780" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C780" s="3"/>
+      <c r="C780" s="2"/>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C781" s="3"/>
+      <c r="C781" s="2"/>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C782" s="3"/>
+      <c r="C782" s="2"/>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C783" s="3"/>
+      <c r="C783" s="2"/>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C784" s="3"/>
+      <c r="C784" s="2"/>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C785" s="3"/>
+      <c r="C785" s="2"/>
     </row>
     <row r="786" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C786" s="3"/>
+      <c r="C786" s="2"/>
     </row>
     <row r="787" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C787" s="3"/>
+      <c r="C787" s="2"/>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C788" s="3"/>
+      <c r="C788" s="2"/>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C789" s="3"/>
+      <c r="C789" s="2"/>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C790" s="3"/>
+      <c r="C790" s="2"/>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C791" s="3"/>
+      <c r="C791" s="2"/>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C792" s="3"/>
+      <c r="C792" s="2"/>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C793" s="3"/>
+      <c r="C793" s="2"/>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C794" s="3"/>
+      <c r="C794" s="2"/>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C795" s="3"/>
+      <c r="C795" s="2"/>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C796" s="3"/>
+      <c r="C796" s="2"/>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C797" s="3"/>
+      <c r="C797" s="2"/>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C798" s="3"/>
+      <c r="C798" s="2"/>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C799" s="3"/>
+      <c r="C799" s="2"/>
     </row>
     <row r="800" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C800" s="3"/>
+      <c r="C800" s="2"/>
     </row>
     <row r="801" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C801" s="3"/>
+      <c r="C801" s="2"/>
     </row>
     <row r="802" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C802" s="3"/>
+      <c r="C802" s="2"/>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C803" s="3"/>
+      <c r="C803" s="2"/>
     </row>
     <row r="804" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C804" s="3"/>
+      <c r="C804" s="2"/>
     </row>
     <row r="805" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C805" s="3"/>
+      <c r="C805" s="2"/>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C806" s="3"/>
+      <c r="C806" s="2"/>
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C807" s="3"/>
+      <c r="C807" s="2"/>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C808" s="3"/>
+      <c r="C808" s="2"/>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C809" s="3"/>
+      <c r="C809" s="2"/>
     </row>
     <row r="810" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C810" s="3"/>
+      <c r="C810" s="2"/>
     </row>
     <row r="811" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C811" s="3"/>
+      <c r="C811" s="2"/>
     </row>
     <row r="812" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C812" s="3"/>
+      <c r="C812" s="2"/>
     </row>
     <row r="813" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C813" s="3"/>
+      <c r="C813" s="2"/>
     </row>
     <row r="814" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C814" s="3"/>
+      <c r="C814" s="2"/>
     </row>
     <row r="815" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C815" s="3"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C816" s="3"/>
+      <c r="C816" s="2"/>
     </row>
     <row r="817" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C817" s="3"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C818" s="3"/>
+      <c r="C818" s="2"/>
     </row>
     <row r="819" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C819" s="3"/>
+      <c r="C819" s="2"/>
     </row>
     <row r="820" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C820" s="3"/>
+      <c r="C820" s="2"/>
     </row>
     <row r="821" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C821" s="3"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C822" s="3"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C823" s="3"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C824" s="3"/>
+      <c r="C824" s="2"/>
     </row>
     <row r="825" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C825" s="3"/>
+      <c r="C825" s="2"/>
     </row>
     <row r="826" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C826" s="3"/>
+      <c r="C826" s="2"/>
     </row>
     <row r="827" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C827" s="3"/>
+      <c r="C827" s="2"/>
     </row>
     <row r="828" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C828" s="3"/>
+      <c r="C828" s="2"/>
     </row>
     <row r="829" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C829" s="3"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C830" s="3"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C831" s="3"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C832" s="3"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C833" s="3"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C834" s="3"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C835" s="3"/>
+      <c r="C835" s="2"/>
     </row>
     <row r="836" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C836" s="3"/>
+      <c r="C836" s="2"/>
     </row>
     <row r="837" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C837" s="3"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C838" s="3"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C839" s="3"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C840" s="3"/>
+      <c r="C840" s="2"/>
     </row>
     <row r="841" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C841" s="3"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C842" s="3"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C843" s="3"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C844" s="3"/>
+      <c r="C844" s="2"/>
     </row>
     <row r="845" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C845" s="3"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C846" s="3"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C847" s="3"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C848" s="3"/>
+      <c r="C848" s="2"/>
     </row>
     <row r="849" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C849" s="3"/>
+      <c r="C849" s="2"/>
     </row>
     <row r="850" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C850" s="3"/>
+      <c r="C850" s="2"/>
     </row>
     <row r="851" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C851" s="3"/>
+      <c r="C851" s="2"/>
     </row>
     <row r="852" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C852" s="3"/>
+      <c r="C852" s="2"/>
     </row>
     <row r="853" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C853" s="3"/>
+      <c r="C853" s="2"/>
     </row>
     <row r="854" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C854" s="3"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C855" s="3"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C856" s="3"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C857" s="3"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C858" s="3"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C859" s="3"/>
+      <c r="C859" s="2"/>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C860" s="3"/>
+      <c r="C860" s="2"/>
     </row>
     <row r="861" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C861" s="3"/>
+      <c r="C861" s="2"/>
     </row>
     <row r="862" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C862" s="3"/>
+      <c r="C862" s="2"/>
     </row>
     <row r="863" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C863" s="3"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C864" s="3"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C865" s="3"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C866" s="3"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C867" s="3"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C868" s="3"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C869" s="3"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C870" s="3"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C871" s="3"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C872" s="3"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C873" s="3"/>
+      <c r="C873" s="2"/>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C874" s="3"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C875" s="3"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C876" s="3"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C877" s="3"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C878" s="3"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C879" s="3"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C880" s="3"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C881" s="3"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C882" s="3"/>
+      <c r="C882" s="2"/>
     </row>
     <row r="883" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C883" s="3"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C884" s="3"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C885" s="3"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C886" s="3"/>
+      <c r="C886" s="2"/>
     </row>
     <row r="887" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C887" s="3"/>
+      <c r="C887" s="2"/>
     </row>
     <row r="888" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C888" s="3"/>
+      <c r="C888" s="2"/>
     </row>
     <row r="889" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C889" s="3"/>
+      <c r="C889" s="2"/>
     </row>
     <row r="890" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C890" s="3"/>
+      <c r="C890" s="2"/>
     </row>
     <row r="891" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C891" s="3"/>
+      <c r="C891" s="2"/>
     </row>
     <row r="892" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C892" s="3"/>
+      <c r="C892" s="2"/>
     </row>
     <row r="893" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C893" s="3"/>
+      <c r="C893" s="2"/>
     </row>
     <row r="894" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C894" s="3"/>
+      <c r="C894" s="2"/>
     </row>
     <row r="895" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C895" s="3"/>
+      <c r="C895" s="2"/>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C896" s="3"/>
+      <c r="C896" s="2"/>
     </row>
     <row r="897" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C897" s="3"/>
+      <c r="C897" s="2"/>
     </row>
     <row r="898" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C898" s="3"/>
+      <c r="C898" s="2"/>
     </row>
     <row r="899" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C899" s="3"/>
+      <c r="C899" s="2"/>
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C900" s="3"/>
+      <c r="C900" s="2"/>
     </row>
     <row r="901" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C901" s="3"/>
+      <c r="C901" s="2"/>
     </row>
     <row r="902" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C902" s="3"/>
+      <c r="C902" s="2"/>
     </row>
     <row r="903" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C903" s="3"/>
+      <c r="C903" s="2"/>
     </row>
     <row r="904" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C904" s="3"/>
+      <c r="C904" s="2"/>
     </row>
     <row r="905" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C905" s="3"/>
+      <c r="C905" s="2"/>
     </row>
     <row r="906" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C906" s="3"/>
+      <c r="C906" s="2"/>
     </row>
     <row r="907" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C907" s="3"/>
+      <c r="C907" s="2"/>
     </row>
     <row r="908" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C908" s="3"/>
+      <c r="C908" s="2"/>
     </row>
     <row r="909" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C909" s="3"/>
+      <c r="C909" s="2"/>
     </row>
     <row r="910" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C910" s="3"/>
+      <c r="C910" s="2"/>
     </row>
     <row r="911" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C911" s="3"/>
+      <c r="C911" s="2"/>
     </row>
     <row r="912" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C912" s="3"/>
+      <c r="C912" s="2"/>
     </row>
     <row r="913" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C913" s="3"/>
+      <c r="C913" s="2"/>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C914" s="3"/>
+      <c r="C914" s="2"/>
     </row>
     <row r="915" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C915" s="3"/>
+      <c r="C915" s="2"/>
     </row>
     <row r="916" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C916" s="3"/>
+      <c r="C916" s="2"/>
     </row>
     <row r="917" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C917" s="3"/>
+      <c r="C917" s="2"/>
     </row>
     <row r="918" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C918" s="3"/>
+      <c r="C918" s="2"/>
     </row>
     <row r="919" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C919" s="3"/>
+      <c r="C919" s="2"/>
     </row>
     <row r="920" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C920" s="3"/>
+      <c r="C920" s="2"/>
     </row>
     <row r="921" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C921" s="3"/>
+      <c r="C921" s="2"/>
     </row>
     <row r="922" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C922" s="3"/>
+      <c r="C922" s="2"/>
     </row>
     <row r="923" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C923" s="3"/>
+      <c r="C923" s="2"/>
     </row>
     <row r="924" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C924" s="3"/>
+      <c r="C924" s="2"/>
     </row>
     <row r="925" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C925" s="3"/>
+      <c r="C925" s="2"/>
     </row>
     <row r="926" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C926" s="3"/>
+      <c r="C926" s="2"/>
     </row>
     <row r="927" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C927" s="3"/>
+      <c r="C927" s="2"/>
     </row>
     <row r="928" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C928" s="3"/>
+      <c r="C928" s="2"/>
     </row>
     <row r="929" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C929" s="3"/>
+      <c r="C929" s="2"/>
     </row>
     <row r="930" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C930" s="3"/>
+      <c r="C930" s="2"/>
     </row>
     <row r="931" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C931" s="3"/>
+      <c r="C931" s="2"/>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C932" s="3"/>
+      <c r="C932" s="2"/>
     </row>
     <row r="933" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C933" s="3"/>
+      <c r="C933" s="2"/>
     </row>
     <row r="934" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C934" s="3"/>
+      <c r="C934" s="2"/>
     </row>
     <row r="935" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C935" s="3"/>
+      <c r="C935" s="2"/>
     </row>
     <row r="936" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C936" s="3"/>
+      <c r="C936" s="2"/>
     </row>
     <row r="937" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C937" s="3"/>
+      <c r="C937" s="2"/>
     </row>
     <row r="938" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C938" s="3"/>
+      <c r="C938" s="2"/>
     </row>
     <row r="939" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C939" s="3"/>
+      <c r="C939" s="2"/>
     </row>
     <row r="940" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C940" s="3"/>
+      <c r="C940" s="2"/>
     </row>
     <row r="941" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C941" s="3"/>
+      <c r="C941" s="2"/>
     </row>
     <row r="942" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C942" s="3"/>
+      <c r="C942" s="2"/>
     </row>
     <row r="943" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C943" s="3"/>
+      <c r="C943" s="2"/>
     </row>
     <row r="944" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C944" s="3"/>
+      <c r="C944" s="2"/>
     </row>
     <row r="945" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C945" s="3"/>
+      <c r="C945" s="2"/>
     </row>
     <row r="946" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C946" s="3"/>
+      <c r="C946" s="2"/>
     </row>
     <row r="947" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C947" s="3"/>
+      <c r="C947" s="2"/>
     </row>
     <row r="948" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C948" s="3"/>
+      <c r="C948" s="2"/>
     </row>
     <row r="949" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C949" s="3"/>
+      <c r="C949" s="2"/>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C950" s="3"/>
+      <c r="C950" s="2"/>
     </row>
     <row r="951" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C951" s="3"/>
+      <c r="C951" s="2"/>
     </row>
     <row r="952" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C952" s="3"/>
+      <c r="C952" s="2"/>
     </row>
     <row r="953" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C953" s="3"/>
+      <c r="C953" s="2"/>
     </row>
     <row r="954" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C954" s="3"/>
+      <c r="C954" s="2"/>
     </row>
     <row r="955" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C955" s="3"/>
+      <c r="C955" s="2"/>
     </row>
     <row r="956" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C956" s="3"/>
+      <c r="C956" s="2"/>
     </row>
     <row r="957" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C957" s="3"/>
+      <c r="C957" s="2"/>
     </row>
     <row r="958" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C958" s="3"/>
+      <c r="C958" s="2"/>
     </row>
     <row r="959" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C959" s="3"/>
+      <c r="C959" s="2"/>
     </row>
     <row r="960" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C960" s="3"/>
+      <c r="C960" s="2"/>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C961" s="3"/>
+      <c r="C961" s="2"/>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C962" s="3"/>
+      <c r="C962" s="2"/>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C963" s="3"/>
+      <c r="C963" s="2"/>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C964" s="3"/>
+      <c r="C964" s="2"/>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C965" s="3"/>
+      <c r="C965" s="2"/>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C966" s="3"/>
+      <c r="C966" s="2"/>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C967" s="3"/>
+      <c r="C967" s="2"/>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C968" s="3"/>
+      <c r="C968" s="2"/>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C969" s="3"/>
+      <c r="C969" s="2"/>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C970" s="3"/>
+      <c r="C970" s="2"/>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C971" s="3"/>
+      <c r="C971" s="2"/>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C972" s="3"/>
+      <c r="C972" s="2"/>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C973" s="3"/>
+      <c r="C973" s="2"/>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C974" s="3"/>
+      <c r="C974" s="2"/>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C975" s="3"/>
+      <c r="C975" s="2"/>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C976" s="3"/>
+      <c r="C976" s="2"/>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C977" s="3"/>
+      <c r="C977" s="2"/>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C978" s="3"/>
+      <c r="C978" s="2"/>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C979" s="3"/>
+      <c r="C979" s="2"/>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C980" s="3"/>
+      <c r="C980" s="2"/>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C981" s="3"/>
+      <c r="C981" s="2"/>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C982" s="3"/>
+      <c r="C982" s="2"/>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C983" s="3"/>
+      <c r="C983" s="2"/>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C984" s="3"/>
+      <c r="C984" s="2"/>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C985" s="3"/>
+      <c r="C985" s="2"/>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C986" s="3"/>
+      <c r="C986" s="2"/>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C987" s="3"/>
+      <c r="C987" s="2"/>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C988" s="3"/>
+      <c r="C988" s="2"/>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C989" s="3"/>
+      <c r="C989" s="2"/>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C990" s="3"/>
+      <c r="C990" s="2"/>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C991" s="3"/>
+      <c r="C991" s="2"/>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C992" s="3"/>
+      <c r="C992" s="2"/>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C993" s="3"/>
+      <c r="C993" s="2"/>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C994" s="3"/>
+      <c r="C994" s="2"/>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C995" s="3"/>
+      <c r="C995" s="2"/>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C996" s="3"/>
+      <c r="C996" s="2"/>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C997" s="3"/>
+      <c r="C997" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dashboardWebsite/backend/uploads/PO.xlsx
+++ b/dashboardWebsite/backend/uploads/PO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Github/XeroAPI/dashboardWebsite/backend/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7269C1-DE4E-A44A-B999-220B3A7E60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C904138-1B22-7B4A-9A4F-B24F8CF0FCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{4B9AE9D0-272D-6147-B144-109295B6F9E3}"/>
   </bookViews>
@@ -104,16 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +449,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,3653 +472,4141 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>3850</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="2">
+        <v>3765</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45715</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.62995999999999996</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4257</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3758</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45722</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63332999999999995</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4099.68</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3991</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45784</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4058</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4276.74</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4059</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4616.49</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4072</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4143.4799999999996</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>4087</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.64217000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4616.49</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4047</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.64764999999999995</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4048</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64265000000000005</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3801.6</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4050</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45799</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.64764999999999995</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7603.2</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>4033</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4057</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45806</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.64151000000000002</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4101.45</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4107</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7054.9</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7127.9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4112</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.64966999999999997</v>
+      </c>
+      <c r="D16" s="6">
+        <v>7350</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4103</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2254.5</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4062</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4063</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4064</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4074</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>4075</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4076</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45813</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.65178000000000003</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4140</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7916.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4142</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4144</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4146</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.65086999999999995</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>4070</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4252.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4071</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3888.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>4115</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4116</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>4117</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4137</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>4141</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.65042</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4114.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4095</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4097</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>4098</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4068</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4083</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4084</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4085</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4090</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4122</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4143</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4147</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4149</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4153</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.64720999999999995</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4155</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>4165</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D52" s="5">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4166</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3967.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>4168</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3967.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4171</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4195</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4199</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>4124</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>4125</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>4126</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>4156</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>4157</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4158</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>4159</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>4170</v>
+      </c>
+      <c r="B65" s="3">
         <v>45834</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C65" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D65" s="5">
+        <v>7127.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>4172</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D66" s="5">
+        <v>7054.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4197</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D67" s="5">
+        <v>7916.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>4198</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D68" s="5">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>4200</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.61589000000000005</v>
+      </c>
+      <c r="D69" s="5">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>4091</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>4092</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>4221</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3801.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>4118</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C73" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D2" s="8">
-        <v>9683.94</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>3882</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="D73" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>4119</v>
+      </c>
+      <c r="B74" s="3">
         <v>45834</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C74" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D3" s="8">
-        <v>9286.5499999999993</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3955</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="D74" s="5">
+        <v>4201.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>4120</v>
+      </c>
+      <c r="B75" s="3">
         <v>45834</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C75" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D4" s="8">
-        <v>9830.0400000000009</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3956</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="D75" s="5">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>4121</v>
+      </c>
+      <c r="B76" s="3">
         <v>45834</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C76" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D5" s="8">
-        <v>9521.82</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3960</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="D76" s="5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>4148</v>
+      </c>
+      <c r="B77" s="3">
         <v>45834</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C77" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D6" s="8">
-        <v>9570.0499999999993</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3985</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="D77" s="5">
+        <v>4241.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>4150</v>
+      </c>
+      <c r="B78" s="3">
         <v>45834</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C78" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D7" s="8">
-        <v>9072.35</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>4007</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="D78" s="5">
+        <v>3979.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4151</v>
+      </c>
+      <c r="B79" s="3">
         <v>45834</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C79" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D8" s="8">
-        <v>8821.51</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>4008</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="D79" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>4152</v>
+      </c>
+      <c r="B80" s="3">
         <v>45834</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C80" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D9" s="8">
-        <v>9526.44</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>4013</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="D80" s="5">
+        <v>3801.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>4167</v>
+      </c>
+      <c r="B81" s="3">
         <v>45834</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C81" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D10" s="8">
-        <v>9841.44</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>4014</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="D81" s="5">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>4169</v>
+      </c>
+      <c r="B82" s="3">
         <v>45834</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C82" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D11" s="8">
-        <v>8871.1</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>4031</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="D82" s="5">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4173</v>
+      </c>
+      <c r="B83" s="3">
         <v>45834</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C83" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D12" s="8">
-        <v>9526.44</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4118</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="D83" s="5">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>4174</v>
+      </c>
+      <c r="B84" s="3">
         <v>45834</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C84" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D84" s="5">
+        <v>3884.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>4181</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.65142</v>
+      </c>
+      <c r="D85" s="5">
         <v>4158</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4119</v>
-      </c>
-      <c r="B14" s="5">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>4196</v>
+      </c>
+      <c r="B86" s="3">
         <v>45834</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C86" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D14" s="8">
-        <v>4201.2</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>4120</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="D86" s="5">
+        <v>4197.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>4226</v>
+      </c>
+      <c r="B87" s="3">
         <v>45834</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C87" s="2">
         <v>0.65142</v>
       </c>
-      <c r="D15" s="8">
-        <v>4455</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>4121</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4293</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>4148</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D17" s="8">
-        <v>4241.7</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>4150</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3979.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>4151</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="D87" s="5">
         <v>4158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>4152</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3801.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>4167</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D21" s="8">
-        <v>15870</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>4169</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D22" s="8">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>4173</v>
-      </c>
-      <c r="B23" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D23" s="8">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>4174</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3884.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>4181</v>
-      </c>
-      <c r="B25" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D25" s="8">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>4196</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D26" s="8">
-        <v>4197.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>4226</v>
-      </c>
-      <c r="B27" s="5">
-        <v>45834</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.65142</v>
-      </c>
-      <c r="D27" s="8">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="7"/>
-    </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="2">
+        <v>4182</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.64864999999999995</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4667.2700000000004</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="7"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="7"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="7"/>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="7"/>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="7"/>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="7"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="7"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="7"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="7"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="7"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="7"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="7"/>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="7"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="7"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="7"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="7"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="7"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="7"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="7"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="7"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="7"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="7"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="7"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="7"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="7"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="7"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="7"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="7"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="7"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="7"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="7"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="7"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="7"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="7"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="7"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="7"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="7"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="7"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="7"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="7"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="7"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="7"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="7"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="7"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="7"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="7"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="7"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="7"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="7"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="7"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="7"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="7"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="7"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C146" s="3"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C147" s="3"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C148" s="3"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C149" s="3"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C150" s="3"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C151" s="3"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C152" s="3"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C153" s="3"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C154" s="3"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C155" s="3"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C156" s="3"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C157" s="3"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C158" s="3"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C159" s="3"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C160" s="3"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="3"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="3"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="3"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="3"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="3"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="3"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="3"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="3"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="3"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="3"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="3"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="3"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="3"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="3"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="3"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="3"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="3"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="3"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="3"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" s="3"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="3"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" s="3"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="3"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="3"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="3"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="3"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="3"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="3"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="3"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="3"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="3"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" s="3"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="3"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="3"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="3"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="3"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="3"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="3"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="3"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="3"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="3"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="3"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="3"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" s="3"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="3"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="3"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="3"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="3"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="3"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="3"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="3"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="3"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="3"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="3"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="3"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="3"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="3"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="3"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="3"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="3"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="3"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="3"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="3"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="3"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="3"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="3"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="3"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="3"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="3"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="3"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="3"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="3"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="3"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="3"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="3"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C241" s="3"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="3"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="3"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="3"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="3"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="3"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="3"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C249" s="3"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="3"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="3"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="3"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C253" s="3"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="3"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C255" s="3"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="3"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="3"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="3"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C259" s="3"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="3"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="3"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="3"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="3"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="3"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="3"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="3"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="3"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C268" s="3"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="3"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="3"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C271" s="3"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="3"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C273" s="3"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="3"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C275" s="3"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="3"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C277" s="3"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="3"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="3"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="3"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C281" s="3"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="3"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C283" s="3"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="3"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C285" s="3"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="3"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C287" s="3"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="3"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C289" s="3"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="3"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="3"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="3"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C293" s="3"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="3"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="3"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C296" s="3"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="3"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C298" s="3"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="3"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C300" s="3"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="3"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C302" s="3"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="3"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="3"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="3"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C306" s="3"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="3"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="3"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C309" s="3"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="3"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C311" s="3"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C312" s="3"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="3"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="3"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C315" s="3"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C316" s="3"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C317" s="3"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="3"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="3"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C320" s="3"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="3"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C322" s="3"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C323" s="3"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="3"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="3"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="3"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="3"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="3"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C329" s="3"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C330" s="3"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="3"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="3"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="3"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="3"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="3"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="3"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="3"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="3"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="3"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="3"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C341" s="3"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C342" s="3"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="3"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="3"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="3"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="3"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="3"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="3"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="3"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="3"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="3"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="3"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="3"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="3"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="3"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="3"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="3"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="3"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C359" s="3"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="3"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C361" s="3"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="3"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="3"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="3"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="3"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="3"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="3"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="3"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="3"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="3"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="3"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C372" s="3"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="3"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="3"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C375" s="3"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="3"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="3"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="3"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C379" s="3"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="3"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C381" s="3"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="3"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="3"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="3"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="3"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="3"/>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="3"/>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="3"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="3"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="3"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="3"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="3"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="3"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="3"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C395" s="3"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="3"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="3"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C398" s="3"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C399" s="3"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="3"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C401" s="3"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C402" s="3"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C403" s="3"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C404" s="3"/>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C405" s="3"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C406" s="3"/>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="3"/>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C408" s="3"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C409" s="3"/>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C410" s="3"/>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C411" s="3"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C412" s="3"/>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C413" s="3"/>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C414" s="3"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C415" s="3"/>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C416" s="3"/>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C417" s="3"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C418" s="3"/>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C419" s="3"/>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C420" s="3"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C421" s="3"/>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C422" s="3"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C423" s="3"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C424" s="3"/>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C425" s="3"/>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C426" s="3"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C427" s="3"/>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C428" s="3"/>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C429" s="3"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C430" s="3"/>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C431" s="3"/>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C432" s="3"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C433" s="3"/>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C434" s="3"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="3"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C436" s="3"/>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C437" s="3"/>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C438" s="3"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C439" s="3"/>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C440" s="3"/>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C441" s="3"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C442" s="3"/>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C443" s="3"/>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C444" s="3"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C445" s="3"/>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C446" s="3"/>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C447" s="3"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C448" s="3"/>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C449" s="3"/>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C450" s="3"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C451" s="3"/>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C452" s="3"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C453" s="3"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C454" s="3"/>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C455" s="3"/>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C456" s="3"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C457" s="3"/>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C458" s="3"/>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C459" s="3"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C460" s="3"/>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C461" s="3"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C462" s="3"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C463" s="3"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C464" s="3"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C465" s="3"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C466" s="3"/>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C467" s="3"/>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C468" s="3"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C469" s="3"/>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C470" s="3"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C471" s="3"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C472" s="3"/>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C473" s="3"/>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C474" s="3"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C475" s="3"/>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C476" s="3"/>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C477" s="3"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C478" s="3"/>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C479" s="3"/>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C480" s="3"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C481" s="3"/>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C482" s="3"/>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="3"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C484" s="3"/>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C485" s="3"/>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C486" s="3"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="3"/>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C488" s="3"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C489" s="3"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="3"/>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C491" s="3"/>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C492" s="3"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C493" s="3"/>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C494" s="3"/>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C495" s="3"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C496" s="3"/>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="3"/>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C498" s="3"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C499" s="3"/>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C500" s="3"/>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C501" s="3"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C502" s="3"/>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C503" s="3"/>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C504" s="3"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C505" s="3"/>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C506" s="3"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C507" s="3"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C508" s="3"/>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C509" s="3"/>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C510" s="3"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C511" s="3"/>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C512" s="3"/>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C513" s="3"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C514" s="3"/>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C515" s="3"/>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C516" s="3"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C517" s="3"/>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C518" s="3"/>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C519" s="3"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C520" s="3"/>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C521" s="3"/>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C522" s="3"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C523" s="3"/>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C524" s="3"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C525" s="3"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C526" s="3"/>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C527" s="3"/>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C528" s="3"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C529" s="3"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C530" s="3"/>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C531" s="3"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C532" s="3"/>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C533" s="3"/>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C534" s="3"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C535" s="3"/>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C536" s="3"/>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C537" s="3"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C538" s="3"/>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C539" s="3"/>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C540" s="3"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C541" s="3"/>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C542" s="3"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C543" s="3"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C544" s="3"/>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C545" s="3"/>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C546" s="3"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C547" s="3"/>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C548" s="3"/>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C549" s="3"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C550" s="3"/>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C551" s="3"/>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C552" s="3"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C553" s="3"/>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C554" s="3"/>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C555" s="3"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C556" s="3"/>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C557" s="3"/>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C558" s="3"/>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C559" s="3"/>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C560" s="3"/>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C561" s="3"/>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C562" s="3"/>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C563" s="3"/>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C564" s="3"/>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C565" s="3"/>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C566" s="3"/>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C567" s="3"/>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C568" s="3"/>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C569" s="3"/>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C570" s="3"/>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C571" s="3"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C572" s="3"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C573" s="3"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C574" s="3"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C575" s="3"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C576" s="3"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C577" s="3"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C578" s="3"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C579" s="3"/>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C580" s="3"/>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C581" s="3"/>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C582" s="3"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C583" s="3"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C584" s="3"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C585" s="3"/>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C586" s="3"/>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C587" s="3"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C588" s="3"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C589" s="3"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C590" s="3"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C591" s="3"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C592" s="3"/>
+      <c r="C592" s="2"/>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C593" s="3"/>
+      <c r="C593" s="2"/>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C594" s="3"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C595" s="3"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C596" s="3"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C597" s="3"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C598" s="3"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C599" s="3"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C600" s="3"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C601" s="3"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C602" s="3"/>
+      <c r="C602" s="2"/>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C603" s="3"/>
+      <c r="C603" s="2"/>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C604" s="3"/>
+      <c r="C604" s="2"/>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C605" s="3"/>
+      <c r="C605" s="2"/>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C606" s="3"/>
+      <c r="C606" s="2"/>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C607" s="3"/>
+      <c r="C607" s="2"/>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C608" s="3"/>
+      <c r="C608" s="2"/>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C609" s="3"/>
+      <c r="C609" s="2"/>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C610" s="3"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C611" s="3"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C612" s="3"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C613" s="3"/>
+      <c r="C613" s="2"/>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C614" s="3"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C615" s="3"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C616" s="3"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C617" s="3"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C618" s="3"/>
+      <c r="C618" s="2"/>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C619" s="3"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C620" s="3"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C621" s="3"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C622" s="3"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C623" s="3"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C624" s="3"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C625" s="3"/>
+      <c r="C625" s="2"/>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C626" s="3"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C627" s="3"/>
+      <c r="C627" s="2"/>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C628" s="3"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C629" s="3"/>
+      <c r="C629" s="2"/>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C630" s="3"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C631" s="3"/>
+      <c r="C631" s="2"/>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C632" s="3"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C633" s="3"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C634" s="3"/>
+      <c r="C634" s="2"/>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C635" s="3"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C636" s="3"/>
+      <c r="C636" s="2"/>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C637" s="3"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C638" s="3"/>
+      <c r="C638" s="2"/>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C639" s="3"/>
+      <c r="C639" s="2"/>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C640" s="3"/>
+      <c r="C640" s="2"/>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C641" s="3"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C642" s="3"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C643" s="3"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C644" s="3"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C645" s="3"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C646" s="3"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C647" s="3"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C648" s="3"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C649" s="3"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C650" s="3"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C651" s="3"/>
+      <c r="C651" s="2"/>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C652" s="3"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C653" s="3"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C654" s="3"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C655" s="3"/>
+      <c r="C655" s="2"/>
     </row>
     <row r="656" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C656" s="3"/>
+      <c r="C656" s="2"/>
     </row>
     <row r="657" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C657" s="3"/>
+      <c r="C657" s="2"/>
     </row>
     <row r="658" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C658" s="3"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C659" s="3"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C660" s="3"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C661" s="3"/>
+      <c r="C661" s="2"/>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C662" s="3"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C663" s="3"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C664" s="3"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C665" s="3"/>
+      <c r="C665" s="2"/>
     </row>
     <row r="666" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C666" s="3"/>
+      <c r="C666" s="2"/>
     </row>
     <row r="667" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C667" s="3"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C668" s="3"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C669" s="3"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C670" s="3"/>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C671" s="3"/>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C672" s="3"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C673" s="3"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C674" s="3"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C675" s="3"/>
+      <c r="C675" s="2"/>
     </row>
     <row r="676" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C676" s="3"/>
+      <c r="C676" s="2"/>
     </row>
     <row r="677" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C677" s="3"/>
+      <c r="C677" s="2"/>
     </row>
     <row r="678" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C678" s="3"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C679" s="3"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C680" s="3"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C681" s="3"/>
+      <c r="C681" s="2"/>
     </row>
     <row r="682" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C682" s="3"/>
+      <c r="C682" s="2"/>
     </row>
     <row r="683" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C683" s="3"/>
+      <c r="C683" s="2"/>
     </row>
     <row r="684" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C684" s="3"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C685" s="3"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C686" s="3"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C687" s="3"/>
+      <c r="C687" s="2"/>
     </row>
     <row r="688" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C688" s="3"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C689" s="3"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C690" s="3"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C691" s="3"/>
+      <c r="C691" s="2"/>
     </row>
     <row r="692" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C692" s="3"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C693" s="3"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C694" s="3"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C695" s="3"/>
+      <c r="C695" s="2"/>
     </row>
     <row r="696" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C696" s="3"/>
+      <c r="C696" s="2"/>
     </row>
     <row r="697" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C697" s="3"/>
+      <c r="C697" s="2"/>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C698" s="3"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C699" s="3"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C700" s="3"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C701" s="3"/>
+      <c r="C701" s="2"/>
     </row>
     <row r="702" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C702" s="3"/>
+      <c r="C702" s="2"/>
     </row>
     <row r="703" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C703" s="3"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C704" s="3"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C705" s="3"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C706" s="3"/>
+      <c r="C706" s="2"/>
     </row>
     <row r="707" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C707" s="3"/>
+      <c r="C707" s="2"/>
     </row>
     <row r="708" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C708" s="3"/>
+      <c r="C708" s="2"/>
     </row>
     <row r="709" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C709" s="3"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C710" s="3"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C711" s="3"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C712" s="3"/>
+      <c r="C712" s="2"/>
     </row>
     <row r="713" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C713" s="3"/>
+      <c r="C713" s="2"/>
     </row>
     <row r="714" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C714" s="3"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C715" s="3"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C716" s="3"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C717" s="3"/>
+      <c r="C717" s="2"/>
     </row>
     <row r="718" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C718" s="3"/>
+      <c r="C718" s="2"/>
     </row>
     <row r="719" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C719" s="3"/>
+      <c r="C719" s="2"/>
     </row>
     <row r="720" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C720" s="3"/>
+      <c r="C720" s="2"/>
     </row>
     <row r="721" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C721" s="3"/>
+      <c r="C721" s="2"/>
     </row>
     <row r="722" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C722" s="3"/>
+      <c r="C722" s="2"/>
     </row>
     <row r="723" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C723" s="3"/>
+      <c r="C723" s="2"/>
     </row>
     <row r="724" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C724" s="3"/>
+      <c r="C724" s="2"/>
     </row>
     <row r="725" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C725" s="3"/>
+      <c r="C725" s="2"/>
     </row>
     <row r="726" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C726" s="3"/>
+      <c r="C726" s="2"/>
     </row>
     <row r="727" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C727" s="3"/>
+      <c r="C727" s="2"/>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C728" s="3"/>
+      <c r="C728" s="2"/>
     </row>
     <row r="729" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C729" s="3"/>
+      <c r="C729" s="2"/>
     </row>
     <row r="730" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C730" s="3"/>
+      <c r="C730" s="2"/>
     </row>
     <row r="731" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C731" s="3"/>
+      <c r="C731" s="2"/>
     </row>
     <row r="732" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C732" s="3"/>
+      <c r="C732" s="2"/>
     </row>
     <row r="733" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C733" s="3"/>
+      <c r="C733" s="2"/>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C734" s="3"/>
+      <c r="C734" s="2"/>
     </row>
     <row r="735" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C735" s="3"/>
+      <c r="C735" s="2"/>
     </row>
     <row r="736" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C736" s="3"/>
+      <c r="C736" s="2"/>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C737" s="3"/>
+      <c r="C737" s="2"/>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C738" s="3"/>
+      <c r="C738" s="2"/>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C739" s="3"/>
+      <c r="C739" s="2"/>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C740" s="3"/>
+      <c r="C740" s="2"/>
     </row>
     <row r="741" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C741" s="3"/>
+      <c r="C741" s="2"/>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C742" s="3"/>
+      <c r="C742" s="2"/>
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C743" s="3"/>
+      <c r="C743" s="2"/>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C744" s="3"/>
+      <c r="C744" s="2"/>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C745" s="3"/>
+      <c r="C745" s="2"/>
     </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C746" s="3"/>
+      <c r="C746" s="2"/>
     </row>
     <row r="747" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C747" s="3"/>
+      <c r="C747" s="2"/>
     </row>
     <row r="748" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C748" s="3"/>
+      <c r="C748" s="2"/>
     </row>
     <row r="749" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C749" s="3"/>
+      <c r="C749" s="2"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C750" s="3"/>
+      <c r="C750" s="2"/>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C751" s="3"/>
+      <c r="C751" s="2"/>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C752" s="3"/>
+      <c r="C752" s="2"/>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C753" s="3"/>
+      <c r="C753" s="2"/>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C754" s="3"/>
+      <c r="C754" s="2"/>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C755" s="3"/>
+      <c r="C755" s="2"/>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C756" s="3"/>
+      <c r="C756" s="2"/>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C757" s="3"/>
+      <c r="C757" s="2"/>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C758" s="3"/>
+      <c r="C758" s="2"/>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C759" s="3"/>
+      <c r="C759" s="2"/>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C760" s="3"/>
+      <c r="C760" s="2"/>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C761" s="3"/>
+      <c r="C761" s="2"/>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C762" s="3"/>
+      <c r="C762" s="2"/>
     </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C763" s="3"/>
+      <c r="C763" s="2"/>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C764" s="3"/>
+      <c r="C764" s="2"/>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C765" s="3"/>
+      <c r="C765" s="2"/>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C766" s="3"/>
+      <c r="C766" s="2"/>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C767" s="3"/>
+      <c r="C767" s="2"/>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C768" s="3"/>
+      <c r="C768" s="2"/>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C769" s="3"/>
+      <c r="C769" s="2"/>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C770" s="3"/>
+      <c r="C770" s="2"/>
     </row>
     <row r="771" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C771" s="3"/>
+      <c r="C771" s="2"/>
     </row>
     <row r="772" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C772" s="3"/>
+      <c r="C772" s="2"/>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C773" s="3"/>
+      <c r="C773" s="2"/>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C774" s="3"/>
+      <c r="C774" s="2"/>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C775" s="3"/>
+      <c r="C775" s="2"/>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C776" s="3"/>
+      <c r="C776" s="2"/>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C777" s="3"/>
+      <c r="C777" s="2"/>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C778" s="3"/>
+      <c r="C778" s="2"/>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C779" s="3"/>
+      <c r="C779" s="2"/>
     </row>
     <row r="780" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C780" s="3"/>
+      <c r="C780" s="2"/>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C781" s="3"/>
+      <c r="C781" s="2"/>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C782" s="3"/>
+      <c r="C782" s="2"/>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C783" s="3"/>
+      <c r="C783" s="2"/>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C784" s="3"/>
+      <c r="C784" s="2"/>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C785" s="3"/>
+      <c r="C785" s="2"/>
     </row>
     <row r="786" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C786" s="3"/>
+      <c r="C786" s="2"/>
     </row>
     <row r="787" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C787" s="3"/>
+      <c r="C787" s="2"/>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C788" s="3"/>
+      <c r="C788" s="2"/>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C789" s="3"/>
+      <c r="C789" s="2"/>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C790" s="3"/>
+      <c r="C790" s="2"/>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C791" s="3"/>
+      <c r="C791" s="2"/>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C792" s="3"/>
+      <c r="C792" s="2"/>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C793" s="3"/>
+      <c r="C793" s="2"/>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C794" s="3"/>
+      <c r="C794" s="2"/>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C795" s="3"/>
+      <c r="C795" s="2"/>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C796" s="3"/>
+      <c r="C796" s="2"/>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C797" s="3"/>
+      <c r="C797" s="2"/>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C798" s="3"/>
+      <c r="C798" s="2"/>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C799" s="3"/>
+      <c r="C799" s="2"/>
     </row>
     <row r="800" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C800" s="3"/>
+      <c r="C800" s="2"/>
     </row>
     <row r="801" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C801" s="3"/>
+      <c r="C801" s="2"/>
     </row>
     <row r="802" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C802" s="3"/>
+      <c r="C802" s="2"/>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C803" s="3"/>
+      <c r="C803" s="2"/>
     </row>
     <row r="804" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C804" s="3"/>
+      <c r="C804" s="2"/>
     </row>
     <row r="805" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C805" s="3"/>
+      <c r="C805" s="2"/>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C806" s="3"/>
+      <c r="C806" s="2"/>
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C807" s="3"/>
+      <c r="C807" s="2"/>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C808" s="3"/>
+      <c r="C808" s="2"/>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C809" s="3"/>
+      <c r="C809" s="2"/>
     </row>
     <row r="810" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C810" s="3"/>
+      <c r="C810" s="2"/>
     </row>
     <row r="811" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C811" s="3"/>
+      <c r="C811" s="2"/>
     </row>
     <row r="812" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C812" s="3"/>
+      <c r="C812" s="2"/>
     </row>
     <row r="813" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C813" s="3"/>
+      <c r="C813" s="2"/>
     </row>
     <row r="814" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C814" s="3"/>
+      <c r="C814" s="2"/>
     </row>
     <row r="815" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C815" s="3"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C816" s="3"/>
+      <c r="C816" s="2"/>
     </row>
     <row r="817" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C817" s="3"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C818" s="3"/>
+      <c r="C818" s="2"/>
     </row>
     <row r="819" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C819" s="3"/>
+      <c r="C819" s="2"/>
     </row>
     <row r="820" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C820" s="3"/>
+      <c r="C820" s="2"/>
     </row>
     <row r="821" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C821" s="3"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C822" s="3"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C823" s="3"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C824" s="3"/>
+      <c r="C824" s="2"/>
     </row>
     <row r="825" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C825" s="3"/>
+      <c r="C825" s="2"/>
     </row>
     <row r="826" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C826" s="3"/>
+      <c r="C826" s="2"/>
     </row>
     <row r="827" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C827" s="3"/>
+      <c r="C827" s="2"/>
     </row>
     <row r="828" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C828" s="3"/>
+      <c r="C828" s="2"/>
     </row>
     <row r="829" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C829" s="3"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C830" s="3"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C831" s="3"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C832" s="3"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C833" s="3"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C834" s="3"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C835" s="3"/>
+      <c r="C835" s="2"/>
     </row>
     <row r="836" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C836" s="3"/>
+      <c r="C836" s="2"/>
     </row>
     <row r="837" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C837" s="3"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C838" s="3"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C839" s="3"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C840" s="3"/>
+      <c r="C840" s="2"/>
     </row>
     <row r="841" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C841" s="3"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C842" s="3"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C843" s="3"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C844" s="3"/>
+      <c r="C844" s="2"/>
     </row>
     <row r="845" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C845" s="3"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C846" s="3"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C847" s="3"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C848" s="3"/>
+      <c r="C848" s="2"/>
     </row>
     <row r="849" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C849" s="3"/>
+      <c r="C849" s="2"/>
     </row>
     <row r="850" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C850" s="3"/>
+      <c r="C850" s="2"/>
     </row>
     <row r="851" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C851" s="3"/>
+      <c r="C851" s="2"/>
     </row>
     <row r="852" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C852" s="3"/>
+      <c r="C852" s="2"/>
     </row>
     <row r="853" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C853" s="3"/>
+      <c r="C853" s="2"/>
     </row>
     <row r="854" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C854" s="3"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C855" s="3"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C856" s="3"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C857" s="3"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C858" s="3"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C859" s="3"/>
+      <c r="C859" s="2"/>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C860" s="3"/>
+      <c r="C860" s="2"/>
     </row>
     <row r="861" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C861" s="3"/>
+      <c r="C861" s="2"/>
     </row>
     <row r="862" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C862" s="3"/>
+      <c r="C862" s="2"/>
     </row>
     <row r="863" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C863" s="3"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C864" s="3"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C865" s="3"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C866" s="3"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C867" s="3"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C868" s="3"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C869" s="3"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C870" s="3"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C871" s="3"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C872" s="3"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C873" s="3"/>
+      <c r="C873" s="2"/>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C874" s="3"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C875" s="3"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C876" s="3"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C877" s="3"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C878" s="3"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C879" s="3"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C880" s="3"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C881" s="3"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C882" s="3"/>
+      <c r="C882" s="2"/>
     </row>
     <row r="883" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C883" s="3"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C884" s="3"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C885" s="3"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C886" s="3"/>
+      <c r="C886" s="2"/>
     </row>
     <row r="887" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C887" s="3"/>
+      <c r="C887" s="2"/>
     </row>
     <row r="888" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C888" s="3"/>
+      <c r="C888" s="2"/>
     </row>
     <row r="889" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C889" s="3"/>
+      <c r="C889" s="2"/>
     </row>
     <row r="890" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C890" s="3"/>
+      <c r="C890" s="2"/>
     </row>
     <row r="891" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C891" s="3"/>
+      <c r="C891" s="2"/>
     </row>
     <row r="892" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C892" s="3"/>
+      <c r="C892" s="2"/>
     </row>
     <row r="893" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C893" s="3"/>
+      <c r="C893" s="2"/>
     </row>
     <row r="894" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C894" s="3"/>
+      <c r="C894" s="2"/>
     </row>
     <row r="895" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C895" s="3"/>
+      <c r="C895" s="2"/>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C896" s="3"/>
+      <c r="C896" s="2"/>
     </row>
     <row r="897" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C897" s="3"/>
+      <c r="C897" s="2"/>
     </row>
     <row r="898" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C898" s="3"/>
+      <c r="C898" s="2"/>
     </row>
     <row r="899" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C899" s="3"/>
+      <c r="C899" s="2"/>
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C900" s="3"/>
+      <c r="C900" s="2"/>
     </row>
     <row r="901" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C901" s="3"/>
+      <c r="C901" s="2"/>
     </row>
     <row r="902" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C902" s="3"/>
+      <c r="C902" s="2"/>
     </row>
     <row r="903" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C903" s="3"/>
+      <c r="C903" s="2"/>
     </row>
     <row r="904" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C904" s="3"/>
+      <c r="C904" s="2"/>
     </row>
     <row r="905" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C905" s="3"/>
+      <c r="C905" s="2"/>
     </row>
     <row r="906" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C906" s="3"/>
+      <c r="C906" s="2"/>
     </row>
     <row r="907" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C907" s="3"/>
+      <c r="C907" s="2"/>
     </row>
     <row r="908" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C908" s="3"/>
+      <c r="C908" s="2"/>
     </row>
     <row r="909" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C909" s="3"/>
+      <c r="C909" s="2"/>
     </row>
     <row r="910" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C910" s="3"/>
+      <c r="C910" s="2"/>
     </row>
     <row r="911" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C911" s="3"/>
+      <c r="C911" s="2"/>
     </row>
     <row r="912" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C912" s="3"/>
+      <c r="C912" s="2"/>
     </row>
     <row r="913" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C913" s="3"/>
+      <c r="C913" s="2"/>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C914" s="3"/>
+      <c r="C914" s="2"/>
     </row>
     <row r="915" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C915" s="3"/>
+      <c r="C915" s="2"/>
     </row>
     <row r="916" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C916" s="3"/>
+      <c r="C916" s="2"/>
     </row>
     <row r="917" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C917" s="3"/>
+      <c r="C917" s="2"/>
     </row>
     <row r="918" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C918" s="3"/>
+      <c r="C918" s="2"/>
     </row>
     <row r="919" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C919" s="3"/>
+      <c r="C919" s="2"/>
     </row>
     <row r="920" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C920" s="3"/>
+      <c r="C920" s="2"/>
     </row>
     <row r="921" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C921" s="3"/>
+      <c r="C921" s="2"/>
     </row>
     <row r="922" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C922" s="3"/>
+      <c r="C922" s="2"/>
     </row>
     <row r="923" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C923" s="3"/>
+      <c r="C923" s="2"/>
     </row>
     <row r="924" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C924" s="3"/>
+      <c r="C924" s="2"/>
     </row>
     <row r="925" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C925" s="3"/>
+      <c r="C925" s="2"/>
     </row>
     <row r="926" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C926" s="3"/>
+      <c r="C926" s="2"/>
     </row>
     <row r="927" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C927" s="3"/>
+      <c r="C927" s="2"/>
     </row>
     <row r="928" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C928" s="3"/>
+      <c r="C928" s="2"/>
     </row>
     <row r="929" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C929" s="3"/>
+      <c r="C929" s="2"/>
     </row>
     <row r="930" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C930" s="3"/>
+      <c r="C930" s="2"/>
     </row>
     <row r="931" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C931" s="3"/>
+      <c r="C931" s="2"/>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C932" s="3"/>
+      <c r="C932" s="2"/>
     </row>
     <row r="933" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C933" s="3"/>
+      <c r="C933" s="2"/>
     </row>
     <row r="934" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C934" s="3"/>
+      <c r="C934" s="2"/>
     </row>
     <row r="935" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C935" s="3"/>
+      <c r="C935" s="2"/>
     </row>
     <row r="936" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C936" s="3"/>
+      <c r="C936" s="2"/>
     </row>
     <row r="937" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C937" s="3"/>
+      <c r="C937" s="2"/>
     </row>
     <row r="938" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C938" s="3"/>
+      <c r="C938" s="2"/>
     </row>
     <row r="939" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C939" s="3"/>
+      <c r="C939" s="2"/>
     </row>
     <row r="940" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C940" s="3"/>
+      <c r="C940" s="2"/>
     </row>
     <row r="941" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C941" s="3"/>
+      <c r="C941" s="2"/>
     </row>
     <row r="942" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C942" s="3"/>
+      <c r="C942" s="2"/>
     </row>
     <row r="943" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C943" s="3"/>
+      <c r="C943" s="2"/>
     </row>
     <row r="944" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C944" s="3"/>
+      <c r="C944" s="2"/>
     </row>
     <row r="945" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C945" s="3"/>
+      <c r="C945" s="2"/>
     </row>
     <row r="946" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C946" s="3"/>
+      <c r="C946" s="2"/>
     </row>
     <row r="947" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C947" s="3"/>
+      <c r="C947" s="2"/>
     </row>
     <row r="948" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C948" s="3"/>
+      <c r="C948" s="2"/>
     </row>
     <row r="949" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C949" s="3"/>
+      <c r="C949" s="2"/>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C950" s="3"/>
+      <c r="C950" s="2"/>
     </row>
     <row r="951" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C951" s="3"/>
+      <c r="C951" s="2"/>
     </row>
     <row r="952" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C952" s="3"/>
+      <c r="C952" s="2"/>
     </row>
     <row r="953" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C953" s="3"/>
+      <c r="C953" s="2"/>
     </row>
     <row r="954" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C954" s="3"/>
+      <c r="C954" s="2"/>
     </row>
     <row r="955" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C955" s="3"/>
+      <c r="C955" s="2"/>
     </row>
     <row r="956" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C956" s="3"/>
+      <c r="C956" s="2"/>
     </row>
     <row r="957" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C957" s="3"/>
+      <c r="C957" s="2"/>
     </row>
     <row r="958" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C958" s="3"/>
+      <c r="C958" s="2"/>
     </row>
     <row r="959" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C959" s="3"/>
+      <c r="C959" s="2"/>
     </row>
     <row r="960" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C960" s="3"/>
+      <c r="C960" s="2"/>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C961" s="3"/>
+      <c r="C961" s="2"/>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C962" s="3"/>
+      <c r="C962" s="2"/>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C963" s="3"/>
+      <c r="C963" s="2"/>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C964" s="3"/>
+      <c r="C964" s="2"/>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C965" s="3"/>
+      <c r="C965" s="2"/>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C966" s="3"/>
+      <c r="C966" s="2"/>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C967" s="3"/>
+      <c r="C967" s="2"/>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C968" s="3"/>
+      <c r="C968" s="2"/>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C969" s="3"/>
+      <c r="C969" s="2"/>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C970" s="3"/>
+      <c r="C970" s="2"/>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C971" s="3"/>
+      <c r="C971" s="2"/>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C972" s="3"/>
+      <c r="C972" s="2"/>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C973" s="3"/>
+      <c r="C973" s="2"/>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C974" s="3"/>
+      <c r="C974" s="2"/>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C975" s="3"/>
+      <c r="C975" s="2"/>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C976" s="3"/>
+      <c r="C976" s="2"/>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C977" s="3"/>
+      <c r="C977" s="2"/>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C978" s="3"/>
+      <c r="C978" s="2"/>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C979" s="3"/>
+      <c r="C979" s="2"/>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C980" s="3"/>
+      <c r="C980" s="2"/>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C981" s="3"/>
+      <c r="C981" s="2"/>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C982" s="3"/>
+      <c r="C982" s="2"/>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C983" s="3"/>
+      <c r="C983" s="2"/>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C984" s="3"/>
+      <c r="C984" s="2"/>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C985" s="3"/>
+      <c r="C985" s="2"/>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C986" s="3"/>
+      <c r="C986" s="2"/>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C987" s="3"/>
+      <c r="C987" s="2"/>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C988" s="3"/>
+      <c r="C988" s="2"/>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C989" s="3"/>
+      <c r="C989" s="2"/>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C990" s="3"/>
+      <c r="C990" s="2"/>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C991" s="3"/>
+      <c r="C991" s="2"/>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C992" s="3"/>
+      <c r="C992" s="2"/>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C993" s="3"/>
+      <c r="C993" s="2"/>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C994" s="3"/>
+      <c r="C994" s="2"/>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C995" s="3"/>
+      <c r="C995" s="2"/>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C996" s="3"/>
+      <c r="C996" s="2"/>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C997" s="3"/>
+      <c r="C997" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
